--- a/合成後project/Document/２.ハートゲーム資料/2.ハートゲーム画面仕様.xlsx
+++ b/合成後project/Document/２.ハートゲーム資料/2.ハートゲーム画面仕様.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\ハートキャッチゲーム\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tt\合成後project\Document\２.ハートゲーム資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD708CC1-BAB9-43FC-8DA3-4F629892C104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6703864A-0CC3-48F0-AC29-AF8E95C49673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="154">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="4">
@@ -1351,6 +1351,220 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>詳細な表示位置</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ヒョウジイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上の画像のように画面下にくっつけて表示してください</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ガメンシタ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ランキングシーンも同じように表示してください</t>
+    <rPh sb="9" eb="10">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>言うのが遅くなってすみません</t>
+    <rPh sb="0" eb="1">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>彼女の表示位置の仕様</t>
+    <rPh sb="0" eb="2">
+      <t>カノジョ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ヒョウジイチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像においてこれが一番前に来るように表示してください</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ランキングのバーに少しかぶっても大丈夫です</t>
+    <rPh sb="9" eb="10">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ダイジョウブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示条件はプレイ画面仕様と同じようにしてください</t>
+    <rPh sb="0" eb="4">
+      <t>ヒョウジジョウケン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕様追加</t>
+    <rPh sb="0" eb="4">
+      <t>シヨウツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面遷移</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Pキー　→　プレイシーン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Rキー　→　ランキングシーン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Sキー　→　ホーム画面（ゲーム選択画面）</t>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>センタクガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上記の通りに画面遷移を行ってください</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示文字</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[S]キー選択画面に戻る</t>
+    <rPh sb="5" eb="9">
+      <t>センタクガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面左上に文字を出してください</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面遷移仕様追加</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>シヨウツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面遷移仕様追加</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>シヨウツイカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1359,7 +1573,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1412,6 +1626,30 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1500,7 +1738,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1582,6 +1820,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1635,8 +1894,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8467725" y="1941007"/>
-          <a:ext cx="3853006" cy="2164268"/>
+          <a:off x="8564880" y="1941007"/>
+          <a:ext cx="3921586" cy="2164268"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2571,6 +2830,172 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>65866</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>76388</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5644BD8-9157-4C65-BCD3-C79D36400634}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8389620" y="17114520"/>
+          <a:ext cx="3921586" cy="2164268"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{036C8E3A-13DF-4E8D-9CF6-96EAA55516CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8511540" y="17236440"/>
+          <a:ext cx="571500" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5399C465-146B-46D6-96DD-3D2605B36A88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5326380" y="17350740"/>
+          <a:ext cx="3131820" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7335,6 +7760,416 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB42A808-3DEC-4184-94E7-E07425433B61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3596640" y="23332440"/>
+          <a:ext cx="3200400" cy="1676400"/>
+          <a:chOff x="9121140" y="21183600"/>
+          <a:chExt cx="3200400" cy="1676400"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="101" name="正方形/長方形 100">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E4DF4CD-4156-451E-B4B7-A9020D3AE46D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9121140" y="21183600"/>
+            <a:ext cx="3200400" cy="1676400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="44450">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="102" name="正方形/長方形 101">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75553397-6E0D-4907-AAC4-65FD32ED699C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9993975" y="21183600"/>
+            <a:ext cx="1440182" cy="1676400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="105" name="テキスト ボックス 104">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB9AB27F-E4DF-458E-9CB0-9E59BC68314B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9286009" y="21340762"/>
+            <a:ext cx="640080" cy="914400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>time</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="r"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>99</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="r"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>score</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="r"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>99999</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="106" name="図 105">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC72A83-E557-4203-8456-94A8147B56B1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10453575" y="22402800"/>
+            <a:ext cx="464349" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="107" name="図 106">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B109671F-75F0-4B63-B979-ACF8979E7489}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11536680" y="21770340"/>
+            <a:ext cx="704850" cy="1072741"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>2858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="正方形/長方形 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79E995CA-1156-4C04-8D41-9EEEB046AA5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6027420" y="23919180"/>
+          <a:ext cx="861060" cy="1229678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="直線矢印コネクタ 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE92479F-0463-4750-9769-05ED6EAF075E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4541520" y="23042880"/>
+          <a:ext cx="1463040" cy="922020"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7366,7 +8201,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6149340" y="1440180"/>
+          <a:off x="6781800" y="1440180"/>
           <a:ext cx="2674620" cy="1440180"/>
           <a:chOff x="2125980" y="1432560"/>
           <a:chExt cx="2674620" cy="1440180"/>
@@ -7819,7 +8654,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2125980" y="1432560"/>
+          <a:off x="2758440" y="1432560"/>
           <a:ext cx="2674620" cy="1440180"/>
           <a:chOff x="2125980" y="1432560"/>
           <a:chExt cx="2674620" cy="1440180"/>
@@ -9576,9 +10411,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2D295A-9295-46AC-88E4-F7ADF9D99499}">
-  <dimension ref="B1:H14"/>
+  <dimension ref="B1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -9748,6 +10585,48 @@
         <v>134</v>
       </c>
     </row>
+    <row r="15" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E15" s="30">
+        <v>45996</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E16" s="30">
+        <v>45996</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E17" s="14">
+        <v>45996</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9757,21 +10636,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD89370-1DE1-4DF5-942C-CF8F59DF7864}">
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
@@ -9779,6 +10660,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="18"/>
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
@@ -9789,6 +10671,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="18"/>
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
@@ -9804,6 +10687,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="18"/>
       <c r="D12" s="8" t="s">
         <v>13</v>
       </c>
@@ -9839,6 +10723,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="20"/>
       <c r="C40" s="10"/>
       <c r="E40" s="9" t="s">
         <v>19</v>
@@ -9848,7 +10733,7 @@
       <c r="A42" s="16">
         <v>45974</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="19" t="s">
         <v>108</v>
       </c>
       <c r="E42" t="s">
@@ -9870,64 +10755,66 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G49" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F51" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G53" t="s">
+    <row r="53" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G53" s="27" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H54" s="26" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="3:8" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:8" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="20"/>
       <c r="C56" s="10"/>
       <c r="E56" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E58" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E60" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E68" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E70" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="3:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="20"/>
       <c r="C72" s="10"/>
       <c r="E72" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E74" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E76" t="s">
         <v>21</v>
       </c>
@@ -9943,6 +10830,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="20"/>
       <c r="C86" s="10"/>
       <c r="E86" s="9" t="s">
         <v>32</v>
@@ -9952,33 +10840,80 @@
       <c r="A88" s="16">
         <v>45974</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="19" t="s">
         <v>103</v>
       </c>
       <c r="E88" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="5:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E106" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="5:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E108" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="5:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E110" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="113" spans="4:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D113" s="11" t="s">
+    <row r="112" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A112" s="32">
+        <v>45996</v>
+      </c>
+      <c r="B112" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E114" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E116" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E118" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F120" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G122" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G124" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F126" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B128" s="21"/>
+      <c r="D128" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E113" s="12"/>
+      <c r="E128" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -9990,21 +10925,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADC6AFD-B471-488C-91FA-BE2A4366C7FC}">
-  <dimension ref="A1:AF164"/>
+  <dimension ref="A1:AF182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="B151" sqref="B151"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
@@ -10012,6 +10949,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="18"/>
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
@@ -10022,6 +10960,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="18"/>
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
@@ -10037,6 +10976,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="18"/>
       <c r="D12" s="8" t="s">
         <v>13</v>
       </c>
@@ -10090,6 +11030,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="20"/>
       <c r="C59" s="10"/>
       <c r="E59" s="9" t="s">
         <v>48</v>
@@ -10109,7 +11050,7 @@
       <c r="A64" s="16">
         <v>45979</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="19" t="s">
         <v>129</v>
       </c>
       <c r="F64" t="s">
@@ -10120,7 +11061,7 @@
       <c r="A65" s="16">
         <v>45975</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="19" t="s">
         <v>111</v>
       </c>
       <c r="F65" t="s">
@@ -10149,7 +11090,7 @@
       <c r="A72" s="16">
         <v>45981</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="19" t="s">
         <v>134</v>
       </c>
       <c r="F72" t="s">
@@ -10177,6 +11118,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="20"/>
       <c r="C81" s="10"/>
       <c r="E81" s="9" t="s">
         <v>55</v>
@@ -10203,6 +11145,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B90" s="20"/>
       <c r="C90" s="10"/>
       <c r="E90" s="9" t="s">
         <v>65</v>
@@ -10217,24 +11160,24 @@
       <c r="A94" s="16">
         <v>45974</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="19" t="s">
         <v>103</v>
       </c>
       <c r="E94" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="97" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="X97" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="99" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="X99" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="101" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E101" t="s">
         <v>68</v>
       </c>
@@ -10245,7 +11188,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="102" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E102" t="s">
         <v>69</v>
       </c>
@@ -10256,7 +11199,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="103" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E103" t="s">
         <v>70</v>
       </c>
@@ -10267,84 +11210,86 @@
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E105" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F106" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="108" spans="3:24" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:24" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B108" s="20"/>
       <c r="C108" s="10"/>
       <c r="E108" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E110" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="111" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E111" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="112" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E112" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="113" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E113" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="114" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E114" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="116" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E116" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="118" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E118" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="119" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F119" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="120" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E120" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="121" spans="3:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B121" s="20"/>
       <c r="C121" s="10"/>
       <c r="E121" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="123" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E123" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="125" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E125" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="127" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F127" t="s">
         <v>92</v>
       </c>
@@ -10358,7 +11303,7 @@
       <c r="A133" s="24">
         <v>45979</v>
       </c>
-      <c r="B133" s="23" t="s">
+      <c r="B133" s="33" t="s">
         <v>120</v>
       </c>
       <c r="C133" s="10"/>
@@ -10387,7 +11332,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="149" spans="3:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F149" t="s">
         <v>121</v>
       </c>
@@ -10398,27 +11343,53 @@
         <v>126</v>
       </c>
     </row>
-    <row r="153" spans="3:32" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C153" s="10"/>
-      <c r="E153" s="9" t="s">
+    <row r="151" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A151" s="16">
+        <v>45996</v>
+      </c>
+      <c r="B151" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="F151" s="27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="168" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F168" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="169" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G169" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC169" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="171" spans="2:29" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B171" s="20"/>
+      <c r="C171" s="10"/>
+      <c r="E171" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="155" spans="3:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E155" t="s">
+    <row r="173" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E173" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="157" spans="3:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F157" t="s">
+    <row r="175" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F175" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="164" spans="4:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D164" s="11" t="s">
+    <row r="182" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B182" s="21"/>
+      <c r="D182" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E164" s="12"/>
+      <c r="E182" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -10430,14 +11401,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F334F70B-BC70-4574-9645-04DF8564C06C}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.19921875" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.8984375" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="19" customWidth="1"/>
+    <col min="2" max="2" width="17.796875" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -10510,50 +11483,71 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="2:6" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="20"/>
-      <c r="C33" s="10"/>
-      <c r="E33" s="9" t="s">
+    <row r="33" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G33" s="27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="20"/>
+      <c r="C35" s="10"/>
+      <c r="E35" s="9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E35" t="s">
+    <row r="37" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E37" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F37" t="s">
+    <row r="39" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F39" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="2:6" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="20"/>
-      <c r="C39" s="10"/>
-      <c r="E39" s="9" t="s">
+    <row r="41" spans="1:7" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="20"/>
+      <c r="C41" s="10"/>
+      <c r="E41" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E41" t="s">
+    <row r="43" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="16">
+        <v>45996</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="2:6" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="20"/>
-      <c r="C43" s="10"/>
-      <c r="E43" s="9" t="s">
+    <row r="44" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F44" s="27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F46" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="20"/>
+      <c r="C48" s="10"/>
+      <c r="E48" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E45" t="s">
+    <row r="50" spans="2:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E50" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="2:5" s="1" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="21"/>
-      <c r="E50" s="11" t="s">
+    <row r="55" spans="2:5" s="1" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="21"/>
+      <c r="E55" s="11" t="s">
         <v>37</v>
       </c>
     </row>

--- a/合成後project/Document/２.ハートゲーム資料/2.ハートゲーム画面仕様.xlsx
+++ b/合成後project/Document/２.ハートゲーム資料/2.ハートゲーム画面仕様.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tt\合成後project\Document\２.ハートゲーム資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6703864A-0CC3-48F0-AC29-AF8E95C49673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E6D4F6-FED6-466F-ACEC-FE93744487C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>

--- a/合成後project/Document/２.ハートゲーム資料/2.ハートゲーム画面仕様.xlsx
+++ b/合成後project/Document/２.ハートゲーム資料/2.ハートゲーム画面仕様.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tt\合成後project\Document\２.ハートゲーム資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E6D4F6-FED6-466F-ACEC-FE93744487C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B821487-7512-4F84-B72F-95E7055B4C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
     <sheet name="タイトル画面仕様" sheetId="1" r:id="rId2"/>
-    <sheet name="プレイ画面仕様" sheetId="3" r:id="rId3"/>
-    <sheet name="ランキング画面仕様" sheetId="4" r:id="rId4"/>
+    <sheet name="チュートリアル画面仕様" sheetId="7" r:id="rId3"/>
+    <sheet name="プレイ画面仕様" sheetId="3" r:id="rId4"/>
+    <sheet name="ランキング画面仕様" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="161">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="4">
@@ -1565,6 +1566,103 @@
     </rPh>
     <rPh sb="4" eb="8">
       <t>シヨウツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チュートリアル画面仕様</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>このシートではハートゲームのチュートリアルについて記載します</t>
+    <rPh sb="25" eb="27">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ドキュメントの素材に入っている「heart_Tutorial.png」を表示してください</t>
+    <rPh sb="7" eb="9">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これを表示するだけ</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面遷移は以下の通りに行ってください</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>タイトル画面　→　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>チュートリアル画面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　→　プレイ画面</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1573,7 +1671,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1648,6 +1746,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1738,7 +1859,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1839,6 +1960,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3003,6 +3154,61 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>123426</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>132936</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87E98D6D-8C39-4E57-8978-0F91A69C7F8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3452812" y="1795462"/>
+          <a:ext cx="3519089" cy="1995074"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>30</xdr:col>
@@ -3029,8 +3235,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7604760" y="1981200"/>
-          <a:ext cx="3200400" cy="1676400"/>
+          <a:off x="7658100" y="1981200"/>
+          <a:ext cx="3238500" cy="1676400"/>
           <a:chOff x="3281363" y="1981200"/>
           <a:chExt cx="3143250" cy="1676400"/>
         </a:xfrm>
@@ -3682,8 +3888,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3307080" y="1981200"/>
-          <a:ext cx="3200400" cy="1676400"/>
+          <a:off x="3308985" y="1981200"/>
+          <a:ext cx="3238500" cy="1676400"/>
           <a:chOff x="3307080" y="1981200"/>
           <a:chExt cx="3200400" cy="1676400"/>
         </a:xfrm>
@@ -4909,8 +5115,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3444240" y="5943600"/>
-          <a:ext cx="3200400" cy="1676400"/>
+          <a:off x="3448050" y="5943600"/>
+          <a:ext cx="3238500" cy="1676400"/>
           <a:chOff x="3281363" y="1981200"/>
           <a:chExt cx="3143250" cy="1676400"/>
         </a:xfrm>
@@ -7320,8 +7526,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7764780" y="9448800"/>
-          <a:ext cx="3200400" cy="1676400"/>
+          <a:off x="7820025" y="9448800"/>
+          <a:ext cx="3238500" cy="1676400"/>
           <a:chOff x="3281363" y="1981200"/>
           <a:chExt cx="3143250" cy="1676400"/>
         </a:xfrm>
@@ -7786,8 +7992,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3596640" y="23332440"/>
-          <a:ext cx="3200400" cy="1676400"/>
+          <a:off x="3600450" y="23332440"/>
+          <a:ext cx="3238500" cy="1676400"/>
           <a:chOff x="9121140" y="21183600"/>
           <a:chExt cx="3200400" cy="1676400"/>
         </a:xfrm>
@@ -8173,7 +8379,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8201,8 +8407,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6781800" y="1440180"/>
-          <a:ext cx="2674620" cy="1440180"/>
+          <a:off x="6756083" y="1455420"/>
+          <a:ext cx="2659380" cy="1457325"/>
           <a:chOff x="2125980" y="1432560"/>
           <a:chExt cx="2674620" cy="1440180"/>
         </a:xfrm>
@@ -8654,8 +8860,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2758440" y="1432560"/>
-          <a:ext cx="2674620" cy="1440180"/>
+          <a:off x="2755583" y="1447800"/>
+          <a:ext cx="2659380" cy="1457325"/>
           <a:chOff x="2125980" y="1432560"/>
           <a:chExt cx="2674620" cy="1440180"/>
         </a:xfrm>
@@ -10411,27 +10617,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2D295A-9295-46AC-88E4-F7ADF9D99499}">
-  <dimension ref="B1:H17"/>
+  <dimension ref="B1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="5" max="5" width="13.19921875" customWidth="1"/>
-    <col min="6" max="6" width="7.296875" customWidth="1"/>
-    <col min="7" max="7" width="17.59765625" customWidth="1"/>
-    <col min="8" max="8" width="20.8984375" customWidth="1"/>
+    <col min="5" max="5" width="13.1875" customWidth="1"/>
+    <col min="6" max="6" width="7.3125" customWidth="1"/>
+    <col min="7" max="7" width="21.4375" customWidth="1"/>
+    <col min="8" max="8" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="32.25" x14ac:dyDescent="0.7">
       <c r="B1" s="3"/>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
@@ -10445,7 +10651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E5" s="14">
         <v>45973</v>
       </c>
@@ -10459,7 +10665,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E6" s="14">
         <v>46003</v>
       </c>
@@ -10473,7 +10679,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E7" s="14">
         <v>45973</v>
       </c>
@@ -10487,7 +10693,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E8" s="14">
         <v>45974</v>
       </c>
@@ -10501,7 +10707,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E9" s="14">
         <v>45974</v>
       </c>
@@ -10515,7 +10721,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E10" s="14">
         <v>45974</v>
       </c>
@@ -10529,7 +10735,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E11" s="14">
         <v>45974</v>
       </c>
@@ -10543,7 +10749,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E12" s="25">
         <v>45979</v>
       </c>
@@ -10557,7 +10763,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E13" s="25">
         <v>45979</v>
       </c>
@@ -10571,7 +10777,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E14" s="14">
         <v>45981</v>
       </c>
@@ -10585,7 +10791,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E15" s="30">
         <v>45996</v>
       </c>
@@ -10599,7 +10805,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E16" s="30">
         <v>45996</v>
       </c>
@@ -10613,7 +10819,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E17" s="14">
         <v>45996</v>
       </c>
@@ -10625,6 +10831,20 @@
       </c>
       <c r="H17" s="22" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E18" s="14">
+        <v>46007</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -10638,17 +10858,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD89370-1DE1-4DF5-942C-CF8F59DF7864}">
   <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="20" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10659,77 +10877,77 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="18"/>
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="18"/>
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="18"/>
       <c r="D12" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D33" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B40" s="20"/>
       <c r="C40" s="10"/>
       <c r="E40" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A42" s="16">
         <v>45974</v>
       </c>
@@ -10740,103 +10958,103 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E44" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F46" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F48" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G49" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F51" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G53" s="27" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H54" s="26" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="2:8" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:8" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B56" s="20"/>
       <c r="C56" s="10"/>
       <c r="E56" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E58" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E60" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E68" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E70" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="2:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B72" s="20"/>
       <c r="C72" s="10"/>
       <c r="E72" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E74" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E76" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E82" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E84" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B86" s="20"/>
       <c r="C86" s="10"/>
       <c r="E86" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A88" s="16">
         <v>45974</v>
       </c>
@@ -10847,22 +11065,22 @@
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E106" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E108" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E110" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="112" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A112" s="32">
         <v>45996</v>
       </c>
@@ -10873,42 +11091,42 @@
         <v>144</v>
       </c>
     </row>
-    <row r="114" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E114" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="116" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E116" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="118" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E118" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="120" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F120" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="122" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G122" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="124" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G124" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="126" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F126" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="128" spans="2:7" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:7" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B128" s="21"/>
       <c r="D128" s="11" t="s">
         <v>37</v>
@@ -10924,20 +11142,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADC6AFD-B471-488C-91FA-BE2A4366C7FC}">
-  <dimension ref="A1:AF182"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D87E550-C4D4-4216-936A-B14E53EF3C25}">
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="20" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10945,451 +11161,158 @@
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="18"/>
-      <c r="D3" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="D2" s="38"/>
+    </row>
+    <row r="3" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="D3" s="39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="18"/>
-      <c r="D7" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="18"/>
-      <c r="D12" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D57" t="s">
-        <v>61</v>
-      </c>
-      <c r="S57" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="20"/>
-      <c r="C59" s="10"/>
-      <c r="E59" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E61" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E63" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="16">
-        <v>45979</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="F64" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="16">
-        <v>45975</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="F65" t="s">
-        <v>110</v>
-      </c>
-      <c r="R65" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G66" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G67" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F70" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="16">
-        <v>45981</v>
-      </c>
-      <c r="B72" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="F72" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F75" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F76" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E78" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="20"/>
-      <c r="C81" s="10"/>
-      <c r="E81" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E83" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E85" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E86" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E87" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B90" s="20"/>
-      <c r="C90" s="10"/>
-      <c r="E90" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E92" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A94" s="16">
-        <v>45974</v>
-      </c>
-      <c r="B94" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="E94" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="97" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="X97" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="99" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="X99" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="101" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E101" t="s">
-        <v>68</v>
-      </c>
-      <c r="K101" t="s">
-        <v>71</v>
-      </c>
-      <c r="M101" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="102" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E102" t="s">
-        <v>69</v>
-      </c>
-      <c r="K102" t="s">
-        <v>71</v>
-      </c>
-      <c r="M102" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="103" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E103" t="s">
-        <v>70</v>
-      </c>
-      <c r="K103" t="s">
-        <v>71</v>
-      </c>
-      <c r="M103" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="105" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E105" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="106" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F106" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="108" spans="2:24" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B108" s="20"/>
-      <c r="C108" s="10"/>
-      <c r="E108" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="110" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E110" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="111" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E111" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="112" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E112" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="113" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E113" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="114" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E114" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="116" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E116" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="118" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E118" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="119" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F119" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="120" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E120" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="121" spans="2:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B121" s="20"/>
-      <c r="C121" s="10"/>
-      <c r="E121" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="123" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E123" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="125" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E125" t="s">
+    <row r="4" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B4" s="42"/>
+    </row>
+    <row r="5" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B5" s="42"/>
+      <c r="D5" s="41" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B6" s="42"/>
+    </row>
+    <row r="7" spans="1:4" s="39" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B7" s="43"/>
+      <c r="D7" s="39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B8" s="42"/>
+    </row>
+    <row r="9" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B9" s="42"/>
+      <c r="D9" s="41" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B10" s="42"/>
+    </row>
+    <row r="11" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B11" s="42"/>
+      <c r="D11" s="41" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="127" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F127" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="129" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F129" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="133" spans="1:32" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A133" s="24">
-        <v>45979</v>
-      </c>
-      <c r="B133" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="C133" s="10"/>
-      <c r="E133" s="23" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="135" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E135" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="137" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F137" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="140" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E140" t="s">
-        <v>125</v>
-      </c>
-      <c r="U140" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF140" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="149" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F149" t="s">
-        <v>121</v>
-      </c>
-      <c r="V149" t="s">
-        <v>122</v>
-      </c>
-      <c r="AF149" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="151" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A151" s="16">
-        <v>45996</v>
-      </c>
-      <c r="B151" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="F151" s="27" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="168" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F168" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="169" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G169" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC169" s="28" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="171" spans="2:29" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B171" s="20"/>
-      <c r="C171" s="10"/>
-      <c r="E171" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="173" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E173" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="175" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F175" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="182" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B182" s="21"/>
-      <c r="D182" s="11" t="s">
+    <row r="12" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B12" s="42"/>
+    </row>
+    <row r="13" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B13" s="42"/>
+    </row>
+    <row r="14" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B14" s="42"/>
+    </row>
+    <row r="15" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B15" s="42"/>
+    </row>
+    <row r="16" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B16" s="42"/>
+    </row>
+    <row r="17" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B17" s="42"/>
+    </row>
+    <row r="18" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B18" s="42"/>
+    </row>
+    <row r="19" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B19" s="42"/>
+    </row>
+    <row r="20" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B20" s="42"/>
+    </row>
+    <row r="21" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B21" s="42"/>
+    </row>
+    <row r="22" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B22" s="42"/>
+    </row>
+    <row r="23" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B23" s="42"/>
+    </row>
+    <row r="24" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B24" s="42"/>
+    </row>
+    <row r="25" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B25" s="42"/>
+    </row>
+    <row r="26" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B26" s="42"/>
+    </row>
+    <row r="27" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B27" s="42"/>
+      <c r="E27" s="41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B28" s="42"/>
+    </row>
+    <row r="29" spans="2:5" s="39" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B29" s="43"/>
+      <c r="D29" s="39" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B30" s="42"/>
+    </row>
+    <row r="31" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B31" s="42"/>
+      <c r="D31" s="41" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B32" s="42"/>
+    </row>
+    <row r="33" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B33" s="42"/>
+      <c r="E33" s="41" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B34" s="42"/>
+    </row>
+    <row r="35" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B35" s="42"/>
+    </row>
+    <row r="36" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B36" s="42"/>
+    </row>
+    <row r="37" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B37" s="42"/>
+    </row>
+    <row r="38" spans="1:5" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A38" s="36"/>
+      <c r="B38" s="37"/>
+      <c r="D38" s="40"/>
+    </row>
+    <row r="39" spans="1:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B39" s="21"/>
+      <c r="D39" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E182" s="12"/>
+      <c r="E39" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -11400,20 +11323,496 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADC6AFD-B471-488C-91FA-BE2A4366C7FC}">
+  <dimension ref="A1:AF182"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B151" sqref="B151"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="20" style="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B3" s="18"/>
+      <c r="D3" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B7" s="18"/>
+      <c r="D7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B12" s="18"/>
+      <c r="D12" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D57" t="s">
+        <v>61</v>
+      </c>
+      <c r="S57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B59" s="20"/>
+      <c r="C59" s="10"/>
+      <c r="E59" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E61" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E63" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A64" s="16">
+        <v>45979</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="F64" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A65" s="16">
+        <v>45975</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F65" t="s">
+        <v>110</v>
+      </c>
+      <c r="R65" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G66" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G67" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A72" s="16">
+        <v>45981</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F72" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F75" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F76" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E78" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B81" s="20"/>
+      <c r="C81" s="10"/>
+      <c r="E81" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E83" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E85" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E86" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E87" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B90" s="20"/>
+      <c r="C90" s="10"/>
+      <c r="E90" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E92" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A94" s="16">
+        <v>45974</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E94" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="X97" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="99" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="X99" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E101" t="s">
+        <v>68</v>
+      </c>
+      <c r="K101" t="s">
+        <v>71</v>
+      </c>
+      <c r="M101" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="102" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E102" t="s">
+        <v>69</v>
+      </c>
+      <c r="K102" t="s">
+        <v>71</v>
+      </c>
+      <c r="M102" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="103" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E103" t="s">
+        <v>70</v>
+      </c>
+      <c r="K103" t="s">
+        <v>71</v>
+      </c>
+      <c r="M103" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="105" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E105" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F106" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="108" spans="2:24" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B108" s="20"/>
+      <c r="C108" s="10"/>
+      <c r="E108" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="110" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E110" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="111" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E111" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="112" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E112" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E113" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E114" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E116" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E118" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F119" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E120" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B121" s="20"/>
+      <c r="C121" s="10"/>
+      <c r="E121" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E123" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E125" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F127" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="129" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F129" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="133" spans="1:32" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A133" s="24">
+        <v>45979</v>
+      </c>
+      <c r="B133" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C133" s="10"/>
+      <c r="E133" s="23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="135" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E135" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="137" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F137" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="140" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E140" t="s">
+        <v>125</v>
+      </c>
+      <c r="U140" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF140" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="149" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F149" t="s">
+        <v>121</v>
+      </c>
+      <c r="V149" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF149" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="151" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A151" s="16">
+        <v>45996</v>
+      </c>
+      <c r="B151" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="F151" s="27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="168" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F168" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="169" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G169" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC169" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="171" spans="2:29" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B171" s="20"/>
+      <c r="C171" s="10"/>
+      <c r="E171" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="173" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E173" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="175" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F175" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B182" s="21"/>
+      <c r="D182" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E182" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F334F70B-BC70-4574-9645-04DF8564C06C}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.19921875" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.1875" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="13.8984375" customWidth="1"/>
-    <col min="2" max="2" width="17.796875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="17.8125" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11424,95 +11823,95 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" s="8" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="18"/>
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" s="8" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="18"/>
       <c r="D7" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E23" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E24" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:6" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:6" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B28" s="20"/>
       <c r="C28" s="10"/>
       <c r="E28" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E30" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F31" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G33" s="27" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B35" s="20"/>
       <c r="C35" s="10"/>
       <c r="E35" s="9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E37" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F39" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B41" s="20"/>
       <c r="C41" s="10"/>
       <c r="E41" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A43" s="16">
         <v>45996</v>
       </c>
@@ -11523,29 +11922,29 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F44" s="27" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F46" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B48" s="20"/>
       <c r="C48" s="10"/>
       <c r="E48" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E50" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="2:5" s="1" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:5" s="1" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B55" s="21"/>
       <c r="E55" s="11" t="s">
         <v>37</v>

--- a/合成後project/Document/２.ハートゲーム資料/2.ハートゲーム画面仕様.xlsx
+++ b/合成後project/Document/２.ハートゲーム資料/2.ハートゲーム画面仕様.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tt\合成後project\Document\２.ハートゲーム資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\合成後project\Document\２.ハートゲーム資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B821487-7512-4F84-B72F-95E7055B4C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F998AC5-F26B-4389-90E3-838B23667089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="180">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="4">
@@ -929,19 +929,6 @@
   </si>
   <si>
     <t>ランキング</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>上の図のように表示</t>
-    <rPh sb="0" eb="1">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1666,12 +1653,243 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>・今回のスコア</t>
+    <rPh sb="1" eb="3">
+      <t>コンカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これをもとに文字を表示してください</t>
+    <rPh sb="6" eb="8">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ranking_background.png</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全体仕様変更</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示文字</t>
+    <rPh sb="0" eb="4">
+      <t>ヒョウジモジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１位:（数値）</t>
+    <rPh sb="1" eb="2">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>２位:（数値）</t>
+    <rPh sb="1" eb="2">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>３位:（数値）</t>
+    <rPh sb="1" eb="2">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※最新のスコアがランクインしたらその文字を点滅させる</t>
+    <rPh sb="1" eb="3">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>テンメツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>例：１位にランクインしたら</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>が点滅</t>
+    <rPh sb="1" eb="3">
+      <t>テンメツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>今回のスコア</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以下のように表示</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あなたのスコアは</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>（数値）</t>
+    <rPh sb="1" eb="3">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※二段で表示してください</t>
+    <rPh sb="1" eb="3">
+      <t>ニダン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>女の子が喋っている感じにしたい</t>
+    <rPh sb="0" eb="1">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シャベ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示位置</t>
+    <rPh sb="0" eb="4">
+      <t>ヒョウジイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>全体仕様変更（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>要チェック</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>シヨウヘンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1774,6 +1992,31 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1859,7 +2102,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1990,6 +2233,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3235,8 +3490,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7658100" y="1981200"/>
-          <a:ext cx="3238500" cy="1676400"/>
+          <a:off x="7604760" y="1981200"/>
+          <a:ext cx="3200400" cy="1676400"/>
           <a:chOff x="3281363" y="1981200"/>
           <a:chExt cx="3143250" cy="1676400"/>
         </a:xfrm>
@@ -3888,8 +4143,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3308985" y="1981200"/>
-          <a:ext cx="3238500" cy="1676400"/>
+          <a:off x="3307080" y="1981200"/>
+          <a:ext cx="3200400" cy="1676400"/>
           <a:chOff x="3307080" y="1981200"/>
           <a:chExt cx="3200400" cy="1676400"/>
         </a:xfrm>
@@ -5115,8 +5370,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3448050" y="5943600"/>
-          <a:ext cx="3238500" cy="1676400"/>
+          <a:off x="3444240" y="5943600"/>
+          <a:ext cx="3200400" cy="1676400"/>
           <a:chOff x="3281363" y="1981200"/>
           <a:chExt cx="3143250" cy="1676400"/>
         </a:xfrm>
@@ -7526,8 +7781,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7820025" y="9448800"/>
-          <a:ext cx="3238500" cy="1676400"/>
+          <a:off x="7764780" y="9448800"/>
+          <a:ext cx="3200400" cy="1676400"/>
           <a:chOff x="3281363" y="1981200"/>
           <a:chExt cx="3143250" cy="1676400"/>
         </a:xfrm>
@@ -7992,8 +8247,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3600450" y="23332440"/>
-          <a:ext cx="3238500" cy="1676400"/>
+          <a:off x="3596640" y="23332440"/>
+          <a:ext cx="3200400" cy="1676400"/>
           <a:chOff x="9121140" y="21183600"/>
           <a:chExt cx="3200400" cy="1676400"/>
         </a:xfrm>
@@ -8376,6 +8631,61 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05E33199-18FD-4A56-8FC2-56FAA44ED89D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4869180" y="17899380"/>
+          <a:ext cx="289560" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8383,929 +8693,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="37" name="グループ化 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7607EEBE-3092-43B4-BDF3-F10818A60BBA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="6756083" y="1455420"/>
-          <a:ext cx="2659380" cy="1457325"/>
-          <a:chOff x="2125980" y="1432560"/>
-          <a:chExt cx="2674620" cy="1440180"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="38" name="正方形/長方形 37">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1965AAB1-91ED-4BCB-A04D-E61773508619}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2125980" y="1432560"/>
-            <a:ext cx="2674620" cy="1440180"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="39" name="フローチャート: 組合せ 38">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E38E7208-715D-46E0-92DF-6E0BFBA3A240}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4130040" y="2072640"/>
-            <a:ext cx="502920" cy="640080"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartMerge">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="40" name="矢印: 五方向 39">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0E874FF-E7C9-42C8-8518-002B5D55115F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2141220" y="1485900"/>
-            <a:ext cx="1318260" cy="266700"/>
-          </a:xfrm>
-          <a:prstGeom prst="homePlate">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>ランキング</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="41" name="矢印: 五方向 40">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9F0A934-CB76-48B9-B54D-0C018C3CE2DA}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2308860" y="1813560"/>
-            <a:ext cx="1318260" cy="198120"/>
-          </a:xfrm>
-          <a:prstGeom prst="homePlate">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>1</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>位：</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>99999</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="42" name="矢印: 五方向 41">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31861C6B-11CE-477A-A034-C9A177EB1C42}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2560320" y="2072640"/>
-            <a:ext cx="1318260" cy="167640"/>
-          </a:xfrm>
-          <a:prstGeom prst="homePlate">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>2</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>位：</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>55555</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="43" name="矢印: 五方向 42">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AFB922D-059D-4731-BF28-5925948FC8E4}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2750820" y="2301240"/>
-            <a:ext cx="1318260" cy="182880"/>
-          </a:xfrm>
-          <a:prstGeom prst="homePlate">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>3</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>位：</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>22222</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="44" name="スマイル 43">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4673F06A-FFEC-4402-A099-B9DA69333601}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4130040" y="1592580"/>
-            <a:ext cx="502920" cy="480060"/>
-          </a:xfrm>
-          <a:prstGeom prst="smileyFace">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="9" name="グループ化 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F77FD3D-4A75-42C0-ACB3-0A5917E187F7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="2755583" y="1447800"/>
-          <a:ext cx="2659380" cy="1457325"/>
-          <a:chOff x="2125980" y="1432560"/>
-          <a:chExt cx="2674620" cy="1440180"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="2" name="正方形/長方形 1">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8435F31-0A5A-49C2-B620-BF5A68099980}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2125980" y="1432560"/>
-            <a:ext cx="2674620" cy="1440180"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="フローチャート: 組合せ 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19404DE1-75F2-4038-BDCF-39B14C15F9E3}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4130040" y="2072640"/>
-            <a:ext cx="502920" cy="640080"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartMerge">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="矢印: 五方向 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E923F6-2F8A-4CE6-A8E2-953AFDE7A37C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2141220" y="1485900"/>
-            <a:ext cx="1318260" cy="266700"/>
-          </a:xfrm>
-          <a:prstGeom prst="homePlate">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>ランキング</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="矢印: 五方向 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6208227-17E6-4210-ACC4-91F80BEE14E9}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2308860" y="1813560"/>
-            <a:ext cx="1318260" cy="198120"/>
-          </a:xfrm>
-          <a:prstGeom prst="homePlate">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>1</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>位：</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>99999</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="矢印: 五方向 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{703400A2-C920-47C9-8DA8-0993B6B40035}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2560320" y="2072640"/>
-            <a:ext cx="1318260" cy="167640"/>
-          </a:xfrm>
-          <a:prstGeom prst="homePlate">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>2</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>位：</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>55555</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="矢印: 五方向 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44750D08-0EEE-428C-A145-D66543A3CB52}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2750820" y="2301240"/>
-            <a:ext cx="1318260" cy="182880"/>
-          </a:xfrm>
-          <a:prstGeom prst="homePlate">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>3</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>位：</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>22222</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="スマイル 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1867959F-4344-4C09-86A8-4F9BEADEB5BF}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4130040" y="1592580"/>
-            <a:ext cx="502920" cy="480060"/>
-          </a:xfrm>
-          <a:prstGeom prst="smileyFace">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17">
+        <xdr:cNvPr id="57" name="正方形/長方形 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8163F03C-BBD2-4A8D-9D9A-F9AA5767C2C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{479694FA-E251-4D47-BCEE-E8B8E18D2C07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9313,18 +8717,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6141720" y="1432560"/>
-          <a:ext cx="2179320" cy="1318260"/>
+          <a:off x="6736080" y="1424940"/>
+          <a:ext cx="2674620" cy="1440180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-        </a:ln>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -9356,22 +8760,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18">
+        <xdr:cNvPr id="58" name="フローチャート: 組合せ 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38C51B76-19D7-4693-8BF0-3113D569B4C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34092773-8A2A-4E04-BD71-2B858506130C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9379,18 +8783,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8153400" y="1584960"/>
-          <a:ext cx="502920" cy="1127760"/>
+          <a:off x="8877300" y="2430780"/>
+          <a:ext cx="381000" cy="403860"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="flowChartMerge">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-        </a:ln>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -9421,65 +8822,64 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+        <xdr:cNvPr id="59" name="矢印: 五方向 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{094B2264-D500-485E-9B4C-8ACA4C374684}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCC92506-65DF-4755-962D-4AAB064C5A0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4907280" y="1440180"/>
-          <a:ext cx="899160" cy="320040"/>
+          <a:off x="6751320" y="1478280"/>
+          <a:ext cx="1318260" cy="266700"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="homePlate">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="25400" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>ランキング</a:t>
           </a:r>
         </a:p>
@@ -9489,23 +8889,350 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="矢印: 五方向 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27084BA3-2458-4BC8-B136-84E3DD4F6CEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="1897380"/>
+          <a:ext cx="1318260" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>位：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>99999</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="矢印: 五方向 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40537750-3B35-4DA3-A71C-409373A1B60A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7078980" y="2217420"/>
+          <a:ext cx="1318260" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>位：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>55555</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="矢印: 五方向 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64DEAF7C-E963-45B7-8046-E67AA1494E52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7383780" y="2522220"/>
+          <a:ext cx="1318260" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>位：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>22222</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="スマイル 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68409F73-FD0D-4FE9-8CFF-840D3DE9D158}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8869680" y="2127885"/>
+          <a:ext cx="381000" cy="302895"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+        <xdr:cNvPr id="64" name="テキスト ボックス 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A382A740-F6F9-486D-8BC4-1A76CBE2DE5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{152CB0D1-F820-4A8C-A1B9-76CDFDEF570A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9513,8 +9240,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6065520" y="2407920"/>
-          <a:ext cx="1005840" cy="632460"/>
+          <a:off x="6606540" y="2392680"/>
+          <a:ext cx="1005840" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9558,6 +9285,850 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>キー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="吹き出し: 円形 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E39B1441-BC72-48AD-9528-EF5FE7803F07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8221980" y="1447800"/>
+          <a:ext cx="1066800" cy="556260"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 29538"/>
+            <a:gd name="adj2" fmla="val 55535"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>you</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>22222</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8435F31-0A5A-49C2-B620-BF5A68099980}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2758440" y="1432560"/>
+          <a:ext cx="2674620" cy="1440180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="フローチャート: 組合せ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19404DE1-75F2-4038-BDCF-39B14C15F9E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4899660" y="2438400"/>
+          <a:ext cx="381000" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMerge">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矢印: 五方向 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E923F6-2F8A-4CE6-A8E2-953AFDE7A37C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2773680" y="1485900"/>
+          <a:ext cx="1318260" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ランキング</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矢印: 五方向 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6208227-17E6-4210-ACC4-91F80BEE14E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2956560" y="1905000"/>
+          <a:ext cx="1318260" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>位：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>99999</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矢印: 五方向 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{703400A2-C920-47C9-8DA8-0993B6B40035}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3101340" y="2225040"/>
+          <a:ext cx="1318260" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>位：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>55555</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矢印: 五方向 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44750D08-0EEE-428C-A145-D66543A3CB52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3406140" y="2529840"/>
+          <a:ext cx="1318260" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>位：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>22222</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>62865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="スマイル 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1867959F-4344-4C09-86A8-4F9BEADEB5BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4892040" y="2135505"/>
+          <a:ext cx="381000" cy="302895"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8163F03C-BBD2-4A8D-9D9A-F9AA5767C2C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6774180" y="1432560"/>
+          <a:ext cx="1920240" cy="1478280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38C51B76-19D7-4693-8BF0-3113D569B4C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8785860" y="2011680"/>
+          <a:ext cx="502920" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{094B2264-D500-485E-9B4C-8ACA4C374684}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5516880" y="1440180"/>
+          <a:ext cx="899160" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="25400" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ランキング</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9776,10 +10347,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9794,8 +10365,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6141720" y="2392680"/>
-          <a:ext cx="838200" cy="510540"/>
+          <a:off x="6774180" y="2392680"/>
+          <a:ext cx="701040" cy="472440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9836,14 +10407,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
@@ -9862,7 +10433,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5806440" y="1592580"/>
+          <a:off x="6416040" y="1592580"/>
           <a:ext cx="335280" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -9951,15 +10522,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>22860</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9971,13 +10542,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="23" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8656320" y="1737360"/>
-          <a:ext cx="670560" cy="175260"/>
+          <a:off x="9311640" y="1737360"/>
+          <a:ext cx="647700" cy="358140"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10008,10 +10580,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
@@ -10033,9 +10605,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="8823960" y="2392680"/>
-          <a:ext cx="502920" cy="15240"/>
+        <a:xfrm flipH="1">
+          <a:off x="9395460" y="2407920"/>
+          <a:ext cx="563880" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10066,192 +10638,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="矢印: 五方向 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8095F6C5-2576-4857-BAB7-AC5C6EB6FDC5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2956560" y="2552700"/>
-          <a:ext cx="1318260" cy="182880"/>
-        </a:xfrm>
-        <a:prstGeom prst="homePlate">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>you</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>22222</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="矢印: 五方向 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D31A4FCB-F075-46BB-8668-6844151D597B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7002780" y="2537460"/>
-          <a:ext cx="1318260" cy="182880"/>
-        </a:xfrm>
-        <a:prstGeom prst="homePlate">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>you</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>22222</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10266,7 +10662,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2019300" y="2446020"/>
+          <a:off x="2567940" y="2461260"/>
           <a:ext cx="1005840" cy="632460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10312,6 +10708,1205 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>キー</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>82352</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>34375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="図 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{058B24E0-A88A-4FA8-8DC4-4A049530825F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3558540" y="21507450"/>
+          <a:ext cx="638612" cy="975445"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>66902</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="図 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E38C932C-25A2-4A58-8635-85AAF0B7DB3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6156960" y="21450301"/>
+          <a:ext cx="704850" cy="1072741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>76861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>148992</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>90149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="図 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DE73534-2C1A-4E62-A528-F7CFE6C4CB16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7690485" y="21412861"/>
+          <a:ext cx="733827" cy="1133428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="吹き出し: 円形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{867B9E86-457B-4F6C-AF54-EE0FECC6CBC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4244340" y="1455420"/>
+          <a:ext cx="1066800" cy="556260"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 29538"/>
+            <a:gd name="adj2" fmla="val 55535"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>you</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>22222</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="正方形/長方形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9185566-7F3B-4FC1-B415-50B57F83A0A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8191500" y="1386840"/>
+          <a:ext cx="1097280" cy="662940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="テキスト ボックス 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B83A3EC2-DBA9-4C6A-BFD1-D4FECD8C6E21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9951720" y="1173480"/>
+          <a:ext cx="1173480" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="25400" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>今回のスコア</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="直線矢印コネクタ 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8429F1F1-2725-4A2A-B009-8817B18BB895}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="67" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9304020" y="1333500"/>
+          <a:ext cx="647700" cy="358140"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>10478</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="図 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD0AF692-8EC6-4308-A23F-E5AE6373CE24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2903220" y="5052060"/>
+          <a:ext cx="2971800" cy="1671638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>45053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="図 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A0956E5-7655-4328-9697-3644CB1D6266}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="23077"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="8358473"/>
+          <a:ext cx="3672840" cy="2560987"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="テキスト ボックス 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3978C74-310E-439D-B322-990B613311C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4297680" y="8473440"/>
+          <a:ext cx="1196340" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="25400" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>この枠に入れる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="直線矢印コネクタ 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38A24FF1-A2C8-4E8C-BBF2-A87A18EDBA64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="79" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5494020" y="8633460"/>
+          <a:ext cx="1203960" cy="129540"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="直線コネクタ 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99B8B917-E8A4-4B7D-9092-B4873A92297A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2933700" y="7894320"/>
+          <a:ext cx="1935480" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>68581</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>30481</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="図 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F573C82-186B-42C4-926D-B342D21EEBC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="55698" r="255" b="51501"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6088380" y="11742421"/>
+          <a:ext cx="2103120" cy="1242060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="テキスト ボックス 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9C6C82A-5DF9-4ECB-8CC5-2A40737396A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4259580" y="11338560"/>
+          <a:ext cx="1196340" cy="617220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="25400" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>この吹き出しに入れる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="直線矢印コネクタ 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{528C1F2A-A37C-4B96-B51A-457D0E265F33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="86" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5455920" y="11647170"/>
+          <a:ext cx="1127760" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="図 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85266449-A970-4720-83BD-A6B7B7561362}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="2" t="-1" r="253" b="-1162"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2926080" y="18752820"/>
+          <a:ext cx="4762500" cy="2590800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>61934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>59492</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>19136</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="図 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{542DDF6A-AE94-4BE7-96FB-8300CFA4C865}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6652260" y="19736774"/>
+          <a:ext cx="1019612" cy="1557402"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="テキスト ボックス 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CF7A15D-A117-49B2-BF3A-7AE056E28EA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8450580" y="19514820"/>
+          <a:ext cx="1196340" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="25400" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ここに表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="直線矢印コネクタ 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68CBCEC9-AB0E-435E-8588-B45B5536F786}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="95" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7635240" y="19682460"/>
+          <a:ext cx="815340" cy="434340"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="正方形/長方形 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98895996-AAA1-432A-8B95-C354449E248E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6758940" y="19758660"/>
+          <a:ext cx="868680" cy="1562100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10617,27 +12212,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2D295A-9295-46AC-88E4-F7ADF9D99499}">
-  <dimension ref="B1:H18"/>
+  <dimension ref="B1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="13.1875" customWidth="1"/>
-    <col min="6" max="6" width="7.3125" customWidth="1"/>
-    <col min="7" max="7" width="21.4375" customWidth="1"/>
-    <col min="8" max="8" width="20.875" customWidth="1"/>
+    <col min="5" max="5" width="13.19921875" customWidth="1"/>
+    <col min="6" max="6" width="7.296875" customWidth="1"/>
+    <col min="7" max="7" width="21.3984375" customWidth="1"/>
+    <col min="8" max="8" width="23.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="32.25" x14ac:dyDescent="0.7">
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.45">
       <c r="B1" s="3"/>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
@@ -10651,7 +12244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E5" s="14">
         <v>45973</v>
       </c>
@@ -10665,7 +12258,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E6" s="14">
         <v>46003</v>
       </c>
@@ -10679,7 +12272,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E7" s="14">
         <v>45973</v>
       </c>
@@ -10687,13 +12280,13 @@
         <v>83</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H7" s="15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E8" s="14">
         <v>45974</v>
       </c>
@@ -10704,10 +12297,10 @@
         <v>84</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E9" s="14">
         <v>45974</v>
       </c>
@@ -10718,10 +12311,10 @@
         <v>85</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E10" s="14">
         <v>45974</v>
       </c>
@@ -10729,13 +12322,13 @@
         <v>83</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E11" s="14">
         <v>45974</v>
       </c>
@@ -10746,10 +12339,10 @@
         <v>84</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E12" s="25">
         <v>45979</v>
       </c>
@@ -10760,10 +12353,10 @@
         <v>85</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E13" s="25">
         <v>45979</v>
       </c>
@@ -10774,10 +12367,10 @@
         <v>85</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E14" s="14">
         <v>45981</v>
       </c>
@@ -10788,10 +12381,10 @@
         <v>85</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E15" s="30">
         <v>45996</v>
       </c>
@@ -10802,10 +12395,10 @@
         <v>38</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E16" s="30">
         <v>45996</v>
       </c>
@@ -10813,13 +12406,13 @@
         <v>83</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E17" s="14">
         <v>45996</v>
       </c>
@@ -10830,10 +12423,10 @@
         <v>84</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E18" s="14">
         <v>46007</v>
       </c>
@@ -10841,10 +12434,24 @@
         <v>83</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E19" s="14">
+        <v>46009</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -10860,13 +12467,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="20" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10877,256 +12484,256 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="18"/>
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="18"/>
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="18"/>
       <c r="D12" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D33" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="20"/>
       <c r="C40" s="10"/>
       <c r="E40" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="16">
         <v>45974</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E42" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E44" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F46" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F48" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="49" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G49" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F51" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G53" s="27" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G53" s="27" t="s">
+    <row r="54" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H54" s="26" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="H54" s="26" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="56" spans="2:8" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="20"/>
       <c r="C56" s="10"/>
       <c r="E56" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="58" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E58" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E60" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="68" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E68" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="70" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E70" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="2:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="72" spans="2:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B72" s="20"/>
       <c r="C72" s="10"/>
       <c r="E72" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="74" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E74" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="76" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E76" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="82" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E82" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="84" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E84" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="86" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B86" s="20"/>
       <c r="C86" s="10"/>
       <c r="E86" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="88" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="16">
         <v>45974</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E88" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="106" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E106" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="108" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E108" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="110" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E110" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="112" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="112" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="32">
         <v>45996</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D112" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E114" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="114" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E114" t="s">
+    <row r="116" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E116" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="116" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E116" t="s">
+    <row r="118" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E118" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="118" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E118" t="s">
+    <row r="120" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F120" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G122" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G124" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F126" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="120" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F120" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="122" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G122" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="124" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G124" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="126" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F126" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="128" spans="2:7" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="128" spans="2:7" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B128" s="21"/>
       <c r="D128" s="11" t="s">
         <v>37</v>
@@ -11145,15 +12752,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D87E550-C4D4-4216-936A-B14E53EF3C25}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="20" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11161,153 +12768,153 @@
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="36"/>
       <c r="B2" s="37"/>
       <c r="D2" s="38"/>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="34"/>
       <c r="B3" s="35"/>
       <c r="D3" s="39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="42"/>
     </row>
-    <row r="5" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="42"/>
       <c r="D5" s="41" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="42"/>
     </row>
-    <row r="7" spans="1:4" s="39" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:4" s="39" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="43"/>
       <c r="D7" s="39" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="42"/>
     </row>
-    <row r="9" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="42"/>
       <c r="D9" s="41" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="42"/>
     </row>
-    <row r="11" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="42"/>
       <c r="D11" s="41" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="42"/>
     </row>
-    <row r="13" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="42"/>
     </row>
-    <row r="14" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="42"/>
     </row>
-    <row r="15" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="42"/>
     </row>
-    <row r="16" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="42"/>
     </row>
-    <row r="17" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="42"/>
     </row>
-    <row r="18" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="42"/>
     </row>
-    <row r="19" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="42"/>
     </row>
-    <row r="20" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="42"/>
     </row>
-    <row r="21" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="42"/>
     </row>
-    <row r="22" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="22" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="42"/>
     </row>
-    <row r="23" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="42"/>
     </row>
-    <row r="24" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="24" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="42"/>
     </row>
-    <row r="25" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="42"/>
     </row>
-    <row r="26" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="42"/>
     </row>
-    <row r="27" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="27" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="42"/>
       <c r="E27" s="41" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="42"/>
     </row>
-    <row r="29" spans="2:5" s="39" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="2:5" s="39" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="43"/>
       <c r="D29" s="39" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="42"/>
     </row>
-    <row r="31" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="42"/>
       <c r="D31" s="41" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="42"/>
     </row>
-    <row r="33" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="42"/>
       <c r="E33" s="41" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="42"/>
     </row>
-    <row r="35" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="42"/>
     </row>
-    <row r="36" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="42"/>
     </row>
-    <row r="37" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="42"/>
     </row>
-    <row r="38" spans="1:5" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:5" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="36"/>
       <c r="B38" s="37"/>
       <c r="D38" s="40"/>
     </row>
-    <row r="39" spans="1:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="21"/>
       <c r="D39" s="11" t="s">
         <v>37</v>
@@ -11326,17 +12933,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADC6AFD-B471-488C-91FA-BE2A4366C7FC}">
   <dimension ref="A1:AF182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133:AK149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="20" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11347,80 +12954,80 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="18"/>
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="18"/>
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="18"/>
       <c r="D12" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E31" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E34" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D57" t="s">
         <v>61</v>
       </c>
@@ -11428,155 +13035,155 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:19" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:19" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="20"/>
       <c r="C59" s="10"/>
       <c r="E59" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E61" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E63" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="16">
         <v>45979</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F64" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="16">
         <v>45975</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R65" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G66" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G67" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="16">
         <v>45981</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F72" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E74" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F75" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F75" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F76" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E78" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B81" s="20"/>
       <c r="C81" s="10"/>
       <c r="E81" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="83" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E83" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E85" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="86" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E86" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="87" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E87" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="90" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B90" s="20"/>
       <c r="C90" s="10"/>
       <c r="E90" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="92" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E92" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="94" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="16">
         <v>45974</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E94" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="97" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="97" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="X97" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="99" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="99" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="X99" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="101" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="101" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E101" t="s">
         <v>68</v>
       </c>
@@ -11587,7 +13194,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="102" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="102" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E102" t="s">
         <v>69</v>
       </c>
@@ -11598,7 +13205,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="103" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="103" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E103" t="s">
         <v>70</v>
       </c>
@@ -11609,181 +13216,181 @@
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="105" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E105" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="106" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F106" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="108" spans="2:24" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="108" spans="2:24" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B108" s="20"/>
       <c r="C108" s="10"/>
       <c r="E108" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="110" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E110" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="111" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="111" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E111" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="112" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="112" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E112" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="113" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="113" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E113" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="114" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="114" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E114" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="116" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="116" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E116" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="118" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="118" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E118" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="119" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="119" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F119" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="120" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="120" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E120" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="121" spans="2:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="121" spans="2:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B121" s="20"/>
       <c r="C121" s="10"/>
       <c r="E121" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="123" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="123" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E123" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="125" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="125" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E125" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="127" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="127" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F127" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="129" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="129" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F129" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="133" spans="1:32" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="133" spans="1:32" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="24">
         <v>45979</v>
       </c>
       <c r="B133" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C133" s="10"/>
       <c r="E133" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="135" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E135" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="135" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E135" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="137" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="137" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F137" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="140" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="140" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E140" t="s">
+        <v>124</v>
+      </c>
+      <c r="U140" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF140" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="149" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F149" t="s">
+        <v>120</v>
+      </c>
+      <c r="V149" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF149" t="s">
         <v>125</v>
       </c>
-      <c r="U140" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF140" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="149" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F149" t="s">
-        <v>121</v>
-      </c>
-      <c r="V149" t="s">
-        <v>122</v>
-      </c>
-      <c r="AF149" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="151" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    </row>
+    <row r="151" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A151" s="16">
         <v>45996</v>
       </c>
       <c r="B151" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F151" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="168" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F168" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="168" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F168" t="s">
+    <row r="169" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G169" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="169" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G169" t="s">
+      <c r="AC169" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="AC169" s="28" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="171" spans="2:29" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    </row>
+    <row r="171" spans="2:29" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B171" s="20"/>
       <c r="C171" s="10"/>
       <c r="E171" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="173" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="173" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E173" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="175" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="175" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F175" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="182" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="182" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B182" s="21"/>
       <c r="D182" s="11" t="s">
         <v>37</v>
@@ -11800,19 +13407,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F334F70B-BC70-4574-9645-04DF8564C06C}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:AJ137"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
-    </sheetView>
+    <sheetView topLeftCell="A31" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.1875" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.19921875" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="17.8125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="13.8984375" customWidth="1"/>
+    <col min="2" max="2" width="17.796875" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11823,130 +13428,349 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="16">
+        <v>46009</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="8" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="18"/>
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:5" s="8" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="18"/>
       <c r="D7" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="2:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="2:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E24" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E24" t="s">
+    <row r="25" spans="2:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E26" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E25" t="s">
+    <row r="27" spans="2:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B28" s="20"/>
-      <c r="C28" s="10"/>
-      <c r="E28" s="9" t="s">
+    <row r="29" spans="2:5" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="20"/>
+      <c r="C29" s="10"/>
+      <c r="E29" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F44" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G45" t="s">
+        <v>162</v>
+      </c>
+      <c r="L45" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="20"/>
+      <c r="C47" s="10"/>
+      <c r="E47" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E30" t="s">
+    <row r="49" spans="5:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E49" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="5:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F50" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F31" t="s">
+    <row r="52" spans="5:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G52" s="27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G53" s="27"/>
+    </row>
+    <row r="54" spans="5:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E54" t="s">
+        <v>165</v>
+      </c>
+      <c r="G54" s="27"/>
+    </row>
+    <row r="55" spans="5:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G55" s="27"/>
+    </row>
+    <row r="56" spans="5:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F56" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="G56" s="27"/>
+    </row>
+    <row r="57" spans="5:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G57" s="27"/>
+    </row>
+    <row r="58" spans="5:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F58" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="G58" s="45"/>
+    </row>
+    <row r="59" spans="5:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G59" s="27"/>
+    </row>
+    <row r="60" spans="5:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F60" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="G60" s="27"/>
+    </row>
+    <row r="61" spans="5:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G61" s="27"/>
+    </row>
+    <row r="62" spans="5:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F62" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="G62" s="27"/>
+    </row>
+    <row r="63" spans="5:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G63" s="27"/>
+    </row>
+    <row r="64" spans="5:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E64" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="G64" s="27"/>
+    </row>
+    <row r="65" spans="2:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G65" s="27"/>
+    </row>
+    <row r="66" spans="2:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G66" s="46" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G67" s="27"/>
+      <c r="I67" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="O67" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G68" s="27"/>
+    </row>
+    <row r="69" spans="2:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G69" s="27"/>
+    </row>
+    <row r="70" spans="2:15" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="20"/>
+      <c r="C70" s="10"/>
+      <c r="E70" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G71" s="27"/>
+    </row>
+    <row r="72" spans="2:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E72" t="s">
+        <v>165</v>
+      </c>
+      <c r="G72" s="27"/>
+    </row>
+    <row r="73" spans="2:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G73" s="27"/>
+    </row>
+    <row r="74" spans="2:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F74" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="G74" s="45"/>
+      <c r="H74" s="44"/>
+    </row>
+    <row r="75" spans="2:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F75" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="G75" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="H75" s="44"/>
+    </row>
+    <row r="76" spans="2:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G76" s="27"/>
+    </row>
+    <row r="77" spans="2:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F77" t="s">
+        <v>176</v>
+      </c>
+      <c r="G77" s="27"/>
+    </row>
+    <row r="78" spans="2:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G78" s="27"/>
+    </row>
+    <row r="79" spans="2:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G79" s="27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G80" s="27"/>
+    </row>
+    <row r="81" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G81" s="27"/>
+    </row>
+    <row r="82" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G82" s="27"/>
+    </row>
+    <row r="83" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G83" s="27"/>
+    </row>
+    <row r="85" spans="1:7" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="20"/>
+      <c r="C85" s="10"/>
+      <c r="E85" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G33" s="27" t="s">
+    <row r="87" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E87" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F89" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B91" s="20"/>
+      <c r="C91" s="10"/>
+      <c r="E91" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A93" s="16">
+        <v>45996</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E93" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F94" s="27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F96" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B35" s="20"/>
-      <c r="C35" s="10"/>
-      <c r="E35" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E37" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F39" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B41" s="20"/>
-      <c r="C41" s="10"/>
-      <c r="E41" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A43" s="16">
-        <v>45996</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="E43" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F44" s="27" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F46" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B48" s="20"/>
-      <c r="C48" s="10"/>
-      <c r="E48" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" s="1" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B55" s="21"/>
-      <c r="E55" s="11" t="s">
+    <row r="97" spans="1:32" s="23" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A97" s="24">
+        <v>46009</v>
+      </c>
+      <c r="B97" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C97" s="10"/>
+      <c r="E97" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="99" spans="1:32" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E99" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="101" spans="1:32" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F101" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="104" spans="1:32" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E104" t="s">
+        <v>124</v>
+      </c>
+      <c r="U104" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF104" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="113" spans="5:36" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F113" t="s">
+        <v>120</v>
+      </c>
+      <c r="V113" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF113" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="116" spans="5:36" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E116" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="127" spans="5:36" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AJ127" s="44"/>
+    </row>
+    <row r="137" spans="2:5" s="1" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B137" s="21"/>
+      <c r="E137" s="11" t="s">
         <v>37</v>
       </c>
     </row>

--- a/合成後project/Document/２.ハートゲーム資料/2.ハートゲーム画面仕様.xlsx
+++ b/合成後project/Document/２.ハートゲーム資料/2.ハートゲーム画面仕様.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\合成後project\Document\２.ハートゲーム資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\Sample\合成後project\Document\２.ハートゲーム資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F998AC5-F26B-4389-90E3-838B23667089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB53DF1-FE30-4C82-9903-9E18904A53A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -12214,7 +12214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2D295A-9295-46AC-88E4-F7ADF9D99499}">
   <dimension ref="B1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -13409,7 +13409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F334F70B-BC70-4574-9645-04DF8564C06C}">
   <dimension ref="A1:AJ137"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.19921875" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>

--- a/合成後project/Document/２.ハートゲーム資料/2.ハートゲーム画面仕様.xlsx
+++ b/合成後project/Document/２.ハートゲーム資料/2.ハートゲーム画面仕様.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\Sample\合成後project\Document\２.ハートゲーム資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB53DF1-FE30-4C82-9903-9E18904A53A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E86429-E323-45F4-A6FB-E0195C99C8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -3490,8 +3490,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7604760" y="1981200"/>
-          <a:ext cx="3200400" cy="1676400"/>
+          <a:off x="7658100" y="1981200"/>
+          <a:ext cx="3238500" cy="1676400"/>
           <a:chOff x="3281363" y="1981200"/>
           <a:chExt cx="3143250" cy="1676400"/>
         </a:xfrm>
@@ -4143,8 +4143,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3307080" y="1981200"/>
-          <a:ext cx="3200400" cy="1676400"/>
+          <a:off x="3308985" y="1981200"/>
+          <a:ext cx="3238500" cy="1676400"/>
           <a:chOff x="3307080" y="1981200"/>
           <a:chExt cx="3200400" cy="1676400"/>
         </a:xfrm>
@@ -5370,8 +5370,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3444240" y="5943600"/>
-          <a:ext cx="3200400" cy="1676400"/>
+          <a:off x="3448050" y="5943600"/>
+          <a:ext cx="3238500" cy="1676400"/>
           <a:chOff x="3281363" y="1981200"/>
           <a:chExt cx="3143250" cy="1676400"/>
         </a:xfrm>
@@ -7781,8 +7781,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7764780" y="9448800"/>
-          <a:ext cx="3200400" cy="1676400"/>
+          <a:off x="7820025" y="9448800"/>
+          <a:ext cx="3238500" cy="1676400"/>
           <a:chOff x="3281363" y="1981200"/>
           <a:chExt cx="3143250" cy="1676400"/>
         </a:xfrm>
@@ -8247,8 +8247,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3596640" y="23332440"/>
-          <a:ext cx="3200400" cy="1676400"/>
+          <a:off x="3600450" y="23332440"/>
+          <a:ext cx="3238500" cy="1676400"/>
           <a:chOff x="9121140" y="21183600"/>
           <a:chExt cx="3200400" cy="1676400"/>
         </a:xfrm>
@@ -12216,21 +12216,21 @@
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="13.19921875" customWidth="1"/>
-    <col min="6" max="6" width="7.296875" customWidth="1"/>
-    <col min="7" max="7" width="21.3984375" customWidth="1"/>
-    <col min="8" max="8" width="23.8984375" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="7.25" customWidth="1"/>
+    <col min="7" max="7" width="21.375" customWidth="1"/>
+    <col min="8" max="8" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.4">
       <c r="B1" s="3"/>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
@@ -12244,7 +12244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E5" s="14">
         <v>45973</v>
       </c>
@@ -12258,7 +12258,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E6" s="14">
         <v>46003</v>
       </c>
@@ -12272,7 +12272,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E7" s="14">
         <v>45973</v>
       </c>
@@ -12286,7 +12286,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E8" s="14">
         <v>45974</v>
       </c>
@@ -12300,7 +12300,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E9" s="14">
         <v>45974</v>
       </c>
@@ -12314,7 +12314,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E10" s="14">
         <v>45974</v>
       </c>
@@ -12328,7 +12328,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E11" s="14">
         <v>45974</v>
       </c>
@@ -12342,7 +12342,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E12" s="25">
         <v>45979</v>
       </c>
@@ -12356,7 +12356,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E13" s="25">
         <v>45979</v>
       </c>
@@ -12370,7 +12370,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E14" s="14">
         <v>45981</v>
       </c>
@@ -12384,7 +12384,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E15" s="30">
         <v>45996</v>
       </c>
@@ -12398,7 +12398,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E16" s="30">
         <v>45996</v>
       </c>
@@ -12412,7 +12412,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E17" s="14">
         <v>45996</v>
       </c>
@@ -12426,7 +12426,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E18" s="14">
         <v>46007</v>
       </c>
@@ -12440,7 +12440,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E19" s="14">
         <v>46009</v>
       </c>
@@ -12467,13 +12467,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="20" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12484,77 +12484,77 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="18"/>
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="18"/>
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="18"/>
       <c r="D12" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D33" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="20"/>
       <c r="C40" s="10"/>
       <c r="E40" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>45974</v>
       </c>
@@ -12565,103 +12565,103 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E44" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F46" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F48" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G49" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F51" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G53" s="27" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H54" s="26" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="2:8" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:8" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="20"/>
       <c r="C56" s="10"/>
       <c r="E56" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E58" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E60" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E68" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E70" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="2:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B72" s="20"/>
       <c r="C72" s="10"/>
       <c r="E72" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E74" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E76" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E82" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E84" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="20"/>
       <c r="C86" s="10"/>
       <c r="E86" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="16">
         <v>45974</v>
       </c>
@@ -12672,22 +12672,22 @@
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E106" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E108" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E110" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="112" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="32">
         <v>45996</v>
       </c>
@@ -12698,42 +12698,42 @@
         <v>143</v>
       </c>
     </row>
-    <row r="114" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E114" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="116" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E116" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="118" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E118" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="120" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F120" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="122" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G122" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="124" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G124" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="126" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F126" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="128" spans="2:7" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:7" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B128" s="21"/>
       <c r="D128" s="11" t="s">
         <v>37</v>
@@ -12754,13 +12754,13 @@
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="20" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12771,150 +12771,150 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="36"/>
       <c r="B2" s="37"/>
       <c r="D2" s="38"/>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="34"/>
       <c r="B3" s="35"/>
       <c r="D3" s="39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="42"/>
     </row>
-    <row r="5" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="42"/>
       <c r="D5" s="41" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="42"/>
     </row>
-    <row r="7" spans="1:4" s="39" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" s="39" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="43"/>
       <c r="D7" s="39" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="42"/>
     </row>
-    <row r="9" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="42"/>
       <c r="D9" s="41" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="42"/>
     </row>
-    <row r="11" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="42"/>
       <c r="D11" s="41" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="42"/>
     </row>
-    <row r="13" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="42"/>
     </row>
-    <row r="14" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="42"/>
     </row>
-    <row r="15" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="42"/>
     </row>
-    <row r="16" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="42"/>
     </row>
-    <row r="17" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="42"/>
     </row>
-    <row r="18" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="42"/>
     </row>
-    <row r="19" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="42"/>
     </row>
-    <row r="20" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="42"/>
     </row>
-    <row r="21" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="42"/>
     </row>
-    <row r="22" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="42"/>
     </row>
-    <row r="23" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="42"/>
     </row>
-    <row r="24" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="42"/>
     </row>
-    <row r="25" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="42"/>
     </row>
-    <row r="26" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="42"/>
     </row>
-    <row r="27" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="42"/>
       <c r="E27" s="41" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="42"/>
     </row>
-    <row r="29" spans="2:5" s="39" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:5" s="39" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="43"/>
       <c r="D29" s="39" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="42"/>
     </row>
-    <row r="31" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="42"/>
       <c r="D31" s="41" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="42"/>
     </row>
-    <row r="33" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="42"/>
       <c r="E33" s="41" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="42"/>
     </row>
-    <row r="35" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="42"/>
     </row>
-    <row r="36" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="42"/>
     </row>
-    <row r="37" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="42"/>
     </row>
-    <row r="38" spans="1:5" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="36"/>
       <c r="B38" s="37"/>
       <c r="D38" s="40"/>
     </row>
-    <row r="39" spans="1:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="21"/>
       <c r="D39" s="11" t="s">
         <v>37</v>
@@ -12937,13 +12937,13 @@
       <selection activeCell="A133" sqref="A133:AK149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="20" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12954,80 +12954,80 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="18"/>
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="18"/>
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="18"/>
       <c r="D12" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E31" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E34" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D57" t="s">
         <v>61</v>
       </c>
@@ -13035,24 +13035,24 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:19" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:19" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B59" s="20"/>
       <c r="C59" s="10"/>
       <c r="E59" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E61" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E63" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="16">
         <v>45979</v>
       </c>
@@ -13063,7 +13063,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="16">
         <v>45975</v>
       </c>
@@ -13077,22 +13077,22 @@
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G66" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G67" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="16">
         <v>45981</v>
       </c>
@@ -13103,66 +13103,66 @@
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E74" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F75" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F76" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E78" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="20"/>
       <c r="C81" s="10"/>
       <c r="E81" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E83" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E85" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E86" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E87" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="20"/>
       <c r="C90" s="10"/>
       <c r="E90" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E92" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="16">
         <v>45974</v>
       </c>
@@ -13173,17 +13173,17 @@
         <v>67</v>
       </c>
     </row>
-    <row r="97" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="X97" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="99" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="X99" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="101" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E101" t="s">
         <v>68</v>
       </c>
@@ -13194,7 +13194,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="102" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E102" t="s">
         <v>69</v>
       </c>
@@ -13205,7 +13205,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="103" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E103" t="s">
         <v>70</v>
       </c>
@@ -13216,96 +13216,96 @@
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E105" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F106" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="108" spans="2:24" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:24" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="20"/>
       <c r="C108" s="10"/>
       <c r="E108" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E110" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="111" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E111" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="112" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E112" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="113" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E113" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="114" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E114" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="116" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E116" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="118" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E118" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="119" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F119" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="120" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E120" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="121" spans="2:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B121" s="20"/>
       <c r="C121" s="10"/>
       <c r="E121" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="123" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E123" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="125" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E125" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="127" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F127" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="129" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F129" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="133" spans="1:32" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:32" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="24">
         <v>45979</v>
       </c>
@@ -13317,17 +13317,17 @@
         <v>117</v>
       </c>
     </row>
-    <row r="135" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E135" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="137" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F137" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="140" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E140" t="s">
         <v>124</v>
       </c>
@@ -13338,7 +13338,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="149" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F149" t="s">
         <v>120</v>
       </c>
@@ -13349,7 +13349,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="151" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="16">
         <v>45996</v>
       </c>
@@ -13360,12 +13360,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="168" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F168" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="169" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G169" t="s">
         <v>136</v>
       </c>
@@ -13373,24 +13373,24 @@
         <v>137</v>
       </c>
     </row>
-    <row r="171" spans="2:29" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:29" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B171" s="20"/>
       <c r="C171" s="10"/>
       <c r="E171" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="173" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E173" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="175" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F175" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="182" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B182" s="21"/>
       <c r="D182" s="11" t="s">
         <v>37</v>
@@ -13409,15 +13409,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F334F70B-BC70-4574-9645-04DF8564C06C}">
   <dimension ref="A1:AJ137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.19921875" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.8984375" customWidth="1"/>
-    <col min="2" max="2" width="17.796875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="17.75" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13428,7 +13428,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16">
         <v>46009</v>
       </c>
@@ -13436,71 +13436,71 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" s="8" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="18"/>
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" s="8" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="18"/>
       <c r="D7" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E24" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E25" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E26" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="2:5" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:5" s="9" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="20"/>
       <c r="C29" s="10"/>
       <c r="E29" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E31" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:12" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F44" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:12" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G45" t="s">
         <v>162</v>
       </c>
@@ -13508,91 +13508,91 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="2:12" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:12" s="9" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="20"/>
       <c r="C47" s="10"/>
       <c r="E47" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="5:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="5:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E49" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="50" spans="5:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="5:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F50" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="5:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="5:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G52" s="27" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="5:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="5:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G53" s="27"/>
     </row>
-    <row r="54" spans="5:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="5:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E54" t="s">
         <v>165</v>
       </c>
       <c r="G54" s="27"/>
     </row>
-    <row r="55" spans="5:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="5:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G55" s="27"/>
     </row>
-    <row r="56" spans="5:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="5:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F56" s="44" t="s">
         <v>96</v>
       </c>
       <c r="G56" s="27"/>
     </row>
-    <row r="57" spans="5:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="5:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G57" s="27"/>
     </row>
-    <row r="58" spans="5:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="5:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F58" s="44" t="s">
         <v>166</v>
       </c>
       <c r="G58" s="45"/>
     </row>
-    <row r="59" spans="5:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="5:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G59" s="27"/>
     </row>
-    <row r="60" spans="5:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="5:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F60" s="44" t="s">
         <v>167</v>
       </c>
       <c r="G60" s="27"/>
     </row>
-    <row r="61" spans="5:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="5:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G61" s="27"/>
     </row>
-    <row r="62" spans="5:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="5:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F62" s="44" t="s">
         <v>168</v>
       </c>
       <c r="G62" s="27"/>
     </row>
-    <row r="63" spans="5:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="5:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G63" s="27"/>
     </row>
-    <row r="64" spans="5:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="5:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E64" s="46" t="s">
         <v>169</v>
       </c>
       <c r="G64" s="27"/>
     </row>
-    <row r="65" spans="2:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G65" s="27"/>
     </row>
-    <row r="66" spans="2:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G66" s="46" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="67" spans="2:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G67" s="27"/>
       <c r="I67" s="44" t="s">
         <v>166</v>
@@ -13601,39 +13601,39 @@
         <v>171</v>
       </c>
     </row>
-    <row r="68" spans="2:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G68" s="27"/>
     </row>
-    <row r="69" spans="2:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G69" s="27"/>
     </row>
-    <row r="70" spans="2:15" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:15" s="9" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B70" s="20"/>
       <c r="C70" s="10"/>
       <c r="E70" s="9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="71" spans="2:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G71" s="27"/>
     </row>
-    <row r="72" spans="2:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E72" t="s">
         <v>165</v>
       </c>
       <c r="G72" s="27"/>
     </row>
-    <row r="73" spans="2:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G73" s="27"/>
     </row>
-    <row r="74" spans="2:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F74" s="44" t="s">
         <v>174</v>
       </c>
       <c r="G74" s="45"/>
       <c r="H74" s="44"/>
     </row>
-    <row r="75" spans="2:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F75" s="44" t="s">
         <v>54</v>
       </c>
@@ -13642,60 +13642,60 @@
       </c>
       <c r="H75" s="44"/>
     </row>
-    <row r="76" spans="2:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G76" s="27"/>
     </row>
-    <row r="77" spans="2:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F77" t="s">
         <v>176</v>
       </c>
       <c r="G77" s="27"/>
     </row>
-    <row r="78" spans="2:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G78" s="27"/>
     </row>
-    <row r="79" spans="2:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G79" s="27" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="80" spans="2:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G80" s="27"/>
     </row>
-    <row r="81" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G81" s="27"/>
     </row>
-    <row r="82" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G82" s="27"/>
     </row>
-    <row r="83" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G83" s="27"/>
     </row>
-    <row r="85" spans="1:7" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" s="9" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="20"/>
       <c r="C85" s="10"/>
       <c r="E85" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E87" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F89" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" s="9" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="20"/>
       <c r="C91" s="10"/>
       <c r="E91" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="16">
         <v>45996</v>
       </c>
@@ -13706,17 +13706,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F94" s="27" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F96" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="97" spans="1:32" s="23" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:32" s="23" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="24">
         <v>46009</v>
       </c>
@@ -13728,17 +13728,17 @@
         <v>117</v>
       </c>
     </row>
-    <row r="99" spans="1:32" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:32" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E99" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="101" spans="1:32" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:32" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F101" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="104" spans="1:32" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:32" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E104" t="s">
         <v>124</v>
       </c>
@@ -13749,7 +13749,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="113" spans="5:36" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="5:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F113" t="s">
         <v>120</v>
       </c>
@@ -13760,15 +13760,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="116" spans="5:36" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="5:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E116" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="127" spans="5:36" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="5:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AJ127" s="44"/>
     </row>
-    <row r="137" spans="2:5" s="1" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:5" s="1" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B137" s="21"/>
       <c r="E137" s="11" t="s">
         <v>37</v>

--- a/合成後project/Document/２.ハートゲーム資料/2.ハートゲーム画面仕様.xlsx
+++ b/合成後project/Document/２.ハートゲーム資料/2.ハートゲーム画面仕様.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\Sample\合成後project\Document\２.ハートゲーム資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tt\合成後project\Document\２.ハートゲーム資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E86429-E323-45F4-A6FB-E0195C99C8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13D6436-080C-457F-BFDE-31B1E3F37291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="チュートリアル画面仕様" sheetId="7" r:id="rId3"/>
     <sheet name="プレイ画面仕様" sheetId="3" r:id="rId4"/>
     <sheet name="ランキング画面仕様" sheetId="4" r:id="rId5"/>
+    <sheet name="画面ワイプ仕様" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="182">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="4">
@@ -1881,6 +1882,26 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>このシートでは画面ワイプについて記載します</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面ワイプ仕様</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3490,8 +3511,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7658100" y="1981200"/>
-          <a:ext cx="3238500" cy="1676400"/>
+          <a:off x="7604760" y="1981200"/>
+          <a:ext cx="3200400" cy="1676400"/>
           <a:chOff x="3281363" y="1981200"/>
           <a:chExt cx="3143250" cy="1676400"/>
         </a:xfrm>
@@ -4143,8 +4164,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3308985" y="1981200"/>
-          <a:ext cx="3238500" cy="1676400"/>
+          <a:off x="3307080" y="1981200"/>
+          <a:ext cx="3200400" cy="1676400"/>
           <a:chOff x="3307080" y="1981200"/>
           <a:chExt cx="3200400" cy="1676400"/>
         </a:xfrm>
@@ -5370,8 +5391,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3448050" y="5943600"/>
-          <a:ext cx="3238500" cy="1676400"/>
+          <a:off x="3444240" y="5943600"/>
+          <a:ext cx="3200400" cy="1676400"/>
           <a:chOff x="3281363" y="1981200"/>
           <a:chExt cx="3143250" cy="1676400"/>
         </a:xfrm>
@@ -7781,8 +7802,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7820025" y="9448800"/>
-          <a:ext cx="3238500" cy="1676400"/>
+          <a:off x="7764780" y="9448800"/>
+          <a:ext cx="3200400" cy="1676400"/>
           <a:chOff x="3281363" y="1981200"/>
           <a:chExt cx="3143250" cy="1676400"/>
         </a:xfrm>
@@ -8247,8 +8268,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3600450" y="23332440"/>
-          <a:ext cx="3238500" cy="1676400"/>
+          <a:off x="3596640" y="23332440"/>
+          <a:ext cx="3200400" cy="1676400"/>
           <a:chOff x="9121140" y="21183600"/>
           <a:chExt cx="3200400" cy="1676400"/>
         </a:xfrm>
@@ -12212,25 +12233,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2D295A-9295-46AC-88E4-F7ADF9D99499}">
-  <dimension ref="B1:H19"/>
+  <dimension ref="B1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:H20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="7.25" customWidth="1"/>
-    <col min="7" max="7" width="21.375" customWidth="1"/>
-    <col min="8" max="8" width="23.875" customWidth="1"/>
+    <col min="5" max="5" width="13.19921875" customWidth="1"/>
+    <col min="6" max="6" width="7.19921875" customWidth="1"/>
+    <col min="7" max="7" width="21.3984375" customWidth="1"/>
+    <col min="8" max="8" width="23.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.45">
       <c r="B1" s="3"/>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
@@ -12244,7 +12267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E5" s="14">
         <v>45973</v>
       </c>
@@ -12258,7 +12281,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E6" s="14">
         <v>46003</v>
       </c>
@@ -12272,7 +12295,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E7" s="14">
         <v>45973</v>
       </c>
@@ -12286,7 +12309,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E8" s="14">
         <v>45974</v>
       </c>
@@ -12300,7 +12323,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E9" s="14">
         <v>45974</v>
       </c>
@@ -12314,7 +12337,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E10" s="14">
         <v>45974</v>
       </c>
@@ -12328,7 +12351,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E11" s="14">
         <v>45974</v>
       </c>
@@ -12342,7 +12365,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E12" s="25">
         <v>45979</v>
       </c>
@@ -12356,7 +12379,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E13" s="25">
         <v>45979</v>
       </c>
@@ -12370,7 +12393,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E14" s="14">
         <v>45981</v>
       </c>
@@ -12384,7 +12407,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E15" s="30">
         <v>45996</v>
       </c>
@@ -12398,7 +12421,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E16" s="30">
         <v>45996</v>
       </c>
@@ -12412,7 +12435,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E17" s="14">
         <v>45996</v>
       </c>
@@ -12426,7 +12449,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E18" s="14">
         <v>46007</v>
       </c>
@@ -12440,7 +12463,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E19" s="14">
         <v>46009</v>
       </c>
@@ -12452,6 +12475,20 @@
       </c>
       <c r="H19" s="22" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E20" s="14">
+        <v>46010</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -12467,13 +12504,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="20" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12484,77 +12521,77 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="18"/>
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="18"/>
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="18"/>
       <c r="D12" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D33" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="20"/>
       <c r="C40" s="10"/>
       <c r="E40" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="16">
         <v>45974</v>
       </c>
@@ -12565,103 +12602,103 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E44" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F46" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F48" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G49" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F51" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G53" s="27" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H54" s="26" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="2:8" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:8" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="20"/>
       <c r="C56" s="10"/>
       <c r="E56" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E58" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E60" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E68" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E70" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="2:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B72" s="20"/>
       <c r="C72" s="10"/>
       <c r="E72" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E74" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E76" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E82" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E84" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B86" s="20"/>
       <c r="C86" s="10"/>
       <c r="E86" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="16">
         <v>45974</v>
       </c>
@@ -12672,22 +12709,22 @@
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E106" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E108" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E110" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="112" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="32">
         <v>45996</v>
       </c>
@@ -12698,42 +12735,42 @@
         <v>143</v>
       </c>
     </row>
-    <row r="114" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E114" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="116" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E116" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="118" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E118" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="120" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F120" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="122" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G122" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="124" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G124" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="126" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F126" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="128" spans="2:7" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="2:7" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B128" s="21"/>
       <c r="D128" s="11" t="s">
         <v>37</v>
@@ -12752,15 +12789,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D87E550-C4D4-4216-936A-B14E53EF3C25}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="20" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12771,150 +12808,150 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="36"/>
       <c r="B2" s="37"/>
       <c r="D2" s="38"/>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="34"/>
       <c r="B3" s="35"/>
       <c r="D3" s="39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="42"/>
     </row>
-    <row r="5" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="42"/>
       <c r="D5" s="41" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="42"/>
     </row>
-    <row r="7" spans="1:4" s="39" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" s="39" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="43"/>
       <c r="D7" s="39" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="42"/>
     </row>
-    <row r="9" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="42"/>
       <c r="D9" s="41" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="42"/>
     </row>
-    <row r="11" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="42"/>
       <c r="D11" s="41" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="42"/>
     </row>
-    <row r="13" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="42"/>
     </row>
-    <row r="14" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="42"/>
     </row>
-    <row r="15" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="42"/>
     </row>
-    <row r="16" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="42"/>
     </row>
-    <row r="17" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="42"/>
     </row>
-    <row r="18" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="42"/>
     </row>
-    <row r="19" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="42"/>
     </row>
-    <row r="20" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="42"/>
     </row>
-    <row r="21" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="42"/>
     </row>
-    <row r="22" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="42"/>
     </row>
-    <row r="23" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="42"/>
     </row>
-    <row r="24" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="42"/>
     </row>
-    <row r="25" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="42"/>
     </row>
-    <row r="26" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="42"/>
     </row>
-    <row r="27" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="42"/>
       <c r="E27" s="41" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="42"/>
     </row>
-    <row r="29" spans="2:5" s="39" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:5" s="39" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="43"/>
       <c r="D29" s="39" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="42"/>
     </row>
-    <row r="31" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="42"/>
       <c r="D31" s="41" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="42"/>
     </row>
-    <row r="33" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="42"/>
       <c r="E33" s="41" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="42"/>
     </row>
-    <row r="35" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="42"/>
     </row>
-    <row r="36" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="42"/>
     </row>
-    <row r="37" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="42"/>
     </row>
-    <row r="38" spans="1:5" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="36"/>
       <c r="B38" s="37"/>
       <c r="D38" s="40"/>
     </row>
-    <row r="39" spans="1:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="21"/>
       <c r="D39" s="11" t="s">
         <v>37</v>
@@ -12933,17 +12970,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADC6AFD-B471-488C-91FA-BE2A4366C7FC}">
   <dimension ref="A1:AF182"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
+    <sheetView topLeftCell="A102" workbookViewId="0">
       <selection activeCell="A133" sqref="A133:AK149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="20" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12954,80 +12991,80 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="18"/>
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="18"/>
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="18"/>
       <c r="D12" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E31" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E34" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D57" t="s">
         <v>61</v>
       </c>
@@ -13035,24 +13072,24 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:19" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:19" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="20"/>
       <c r="C59" s="10"/>
       <c r="E59" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E61" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E63" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="16">
         <v>45979</v>
       </c>
@@ -13063,7 +13100,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="16">
         <v>45975</v>
       </c>
@@ -13077,22 +13114,22 @@
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G66" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G67" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="16">
         <v>45981</v>
       </c>
@@ -13103,66 +13140,66 @@
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E74" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F75" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F76" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E78" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B81" s="20"/>
       <c r="C81" s="10"/>
       <c r="E81" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E83" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E85" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E86" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E87" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B90" s="20"/>
       <c r="C90" s="10"/>
       <c r="E90" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E92" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="16">
         <v>45974</v>
       </c>
@@ -13173,17 +13210,17 @@
         <v>67</v>
       </c>
     </row>
-    <row r="97" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="X97" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="99" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="X99" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="101" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E101" t="s">
         <v>68</v>
       </c>
@@ -13194,7 +13231,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="102" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E102" t="s">
         <v>69</v>
       </c>
@@ -13205,7 +13242,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="103" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E103" t="s">
         <v>70</v>
       </c>
@@ -13216,96 +13253,96 @@
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E105" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F106" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="108" spans="2:24" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:24" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B108" s="20"/>
       <c r="C108" s="10"/>
       <c r="E108" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E110" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="111" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E111" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="112" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E112" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="113" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E113" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="114" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E114" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="116" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E116" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="118" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E118" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="119" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F119" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="120" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E120" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="121" spans="2:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B121" s="20"/>
       <c r="C121" s="10"/>
       <c r="E121" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="123" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E123" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="125" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E125" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="127" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F127" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="129" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F129" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="133" spans="1:32" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:32" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="24">
         <v>45979</v>
       </c>
@@ -13317,17 +13354,17 @@
         <v>117</v>
       </c>
     </row>
-    <row r="135" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E135" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="137" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F137" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="140" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E140" t="s">
         <v>124</v>
       </c>
@@ -13338,7 +13375,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="149" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F149" t="s">
         <v>120</v>
       </c>
@@ -13349,7 +13386,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="151" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A151" s="16">
         <v>45996</v>
       </c>
@@ -13360,12 +13397,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="168" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F168" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="169" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G169" t="s">
         <v>136</v>
       </c>
@@ -13373,24 +13410,24 @@
         <v>137</v>
       </c>
     </row>
-    <row r="171" spans="2:29" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="2:29" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B171" s="20"/>
       <c r="C171" s="10"/>
       <c r="E171" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="173" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E173" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="175" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F175" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="182" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B182" s="21"/>
       <c r="D182" s="11" t="s">
         <v>37</v>
@@ -13409,15 +13446,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F334F70B-BC70-4574-9645-04DF8564C06C}">
   <dimension ref="A1:AJ137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A57" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.19921875" defaultRowHeight="13.2" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="17.75" style="19" customWidth="1"/>
+    <col min="1" max="1" width="13.8984375" customWidth="1"/>
+    <col min="2" max="2" width="17.69921875" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13428,7 +13465,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="16">
         <v>46009</v>
       </c>
@@ -13436,71 +13473,71 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" s="8" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="18"/>
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" s="8" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="18"/>
       <c r="D7" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E24" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E25" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E26" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="2:5" s="9" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:5" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="20"/>
       <c r="C29" s="10"/>
       <c r="E29" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E31" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F44" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G45" t="s">
         <v>162</v>
       </c>
@@ -13508,91 +13545,91 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="2:12" s="9" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:12" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="20"/>
       <c r="C47" s="10"/>
       <c r="E47" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="5:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E49" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="50" spans="5:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F50" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="5:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G52" s="27" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="5:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G53" s="27"/>
     </row>
-    <row r="54" spans="5:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E54" t="s">
         <v>165</v>
       </c>
       <c r="G54" s="27"/>
     </row>
-    <row r="55" spans="5:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G55" s="27"/>
     </row>
-    <row r="56" spans="5:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F56" s="44" t="s">
         <v>96</v>
       </c>
       <c r="G56" s="27"/>
     </row>
-    <row r="57" spans="5:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G57" s="27"/>
     </row>
-    <row r="58" spans="5:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F58" s="44" t="s">
         <v>166</v>
       </c>
       <c r="G58" s="45"/>
     </row>
-    <row r="59" spans="5:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G59" s="27"/>
     </row>
-    <row r="60" spans="5:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F60" s="44" t="s">
         <v>167</v>
       </c>
       <c r="G60" s="27"/>
     </row>
-    <row r="61" spans="5:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G61" s="27"/>
     </row>
-    <row r="62" spans="5:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F62" s="44" t="s">
         <v>168</v>
       </c>
       <c r="G62" s="27"/>
     </row>
-    <row r="63" spans="5:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G63" s="27"/>
     </row>
-    <row r="64" spans="5:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E64" s="46" t="s">
         <v>169</v>
       </c>
       <c r="G64" s="27"/>
     </row>
-    <row r="65" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G65" s="27"/>
     </row>
-    <row r="66" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G66" s="46" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="67" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G67" s="27"/>
       <c r="I67" s="44" t="s">
         <v>166</v>
@@ -13601,39 +13638,39 @@
         <v>171</v>
       </c>
     </row>
-    <row r="68" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G68" s="27"/>
     </row>
-    <row r="69" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G69" s="27"/>
     </row>
-    <row r="70" spans="2:15" s="9" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:15" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B70" s="20"/>
       <c r="C70" s="10"/>
       <c r="E70" s="9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="71" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G71" s="27"/>
     </row>
-    <row r="72" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E72" t="s">
         <v>165</v>
       </c>
       <c r="G72" s="27"/>
     </row>
-    <row r="73" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G73" s="27"/>
     </row>
-    <row r="74" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F74" s="44" t="s">
         <v>174</v>
       </c>
       <c r="G74" s="45"/>
       <c r="H74" s="44"/>
     </row>
-    <row r="75" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F75" s="44" t="s">
         <v>54</v>
       </c>
@@ -13642,60 +13679,60 @@
       </c>
       <c r="H75" s="44"/>
     </row>
-    <row r="76" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G76" s="27"/>
     </row>
-    <row r="77" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F77" t="s">
         <v>176</v>
       </c>
       <c r="G77" s="27"/>
     </row>
-    <row r="78" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G78" s="27"/>
     </row>
-    <row r="79" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G79" s="27" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="80" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G80" s="27"/>
     </row>
-    <row r="81" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G81" s="27"/>
     </row>
-    <row r="82" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G82" s="27"/>
     </row>
-    <row r="83" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G83" s="27"/>
     </row>
-    <row r="85" spans="1:7" s="9" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B85" s="20"/>
       <c r="C85" s="10"/>
       <c r="E85" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E87" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F89" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="9" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:7" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B91" s="20"/>
       <c r="C91" s="10"/>
       <c r="E91" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="16">
         <v>45996</v>
       </c>
@@ -13706,17 +13743,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F94" s="27" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F96" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="97" spans="1:32" s="23" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:32" s="23" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="24">
         <v>46009</v>
       </c>
@@ -13728,17 +13765,17 @@
         <v>117</v>
       </c>
     </row>
-    <row r="99" spans="1:32" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:32" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E99" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="101" spans="1:32" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:32" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F101" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="104" spans="1:32" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:32" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E104" t="s">
         <v>124</v>
       </c>
@@ -13749,7 +13786,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="113" spans="5:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="5:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F113" t="s">
         <v>120</v>
       </c>
@@ -13760,15 +13797,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="116" spans="5:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="5:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E116" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="127" spans="5:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="5:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AJ127" s="44"/>
     </row>
-    <row r="137" spans="2:5" s="1" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="2:5" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B137" s="21"/>
       <c r="E137" s="11" t="s">
         <v>37</v>
@@ -13779,4 +13816,81 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6888B70-F55A-4F02-9108-5680AE2CD0C9}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="20" style="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="D2" s="38"/>
+    </row>
+    <row r="3" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="D3" s="39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="42"/>
+    </row>
+    <row r="5" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="42"/>
+      <c r="D5" s="41" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="42"/>
+    </row>
+    <row r="7" spans="1:5" s="39" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="43"/>
+      <c r="D7" s="39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="42"/>
+    </row>
+    <row r="9" spans="1:5" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="D9" s="40"/>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="21"/>
+      <c r="D10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/合成後project/Document/２.ハートゲーム資料/2.ハートゲーム画面仕様.xlsx
+++ b/合成後project/Document/２.ハートゲーム資料/2.ハートゲーム画面仕様.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tt\合成後project\Document\２.ハートゲーム資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\合成後project\Document\２.ハートゲーム資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13D6436-080C-457F-BFDE-31B1E3F37291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5851F197-1150-4B3A-AA36-6AEFC69DBF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="187">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="4">
@@ -1905,12 +1905,65 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>画面遷移時のワイプは共通です</t>
+    <rPh sb="0" eb="5">
+      <t>ガメンセンイジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>詳細説明</t>
+    <rPh sb="0" eb="4">
+      <t>ショウサイセツメイ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>ボタンを押した後６０フレームのうちに画面を暗転させる</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>アンテン</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>※</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>一番前にある黒い板の透明度を０％にする</t>
+    <rPh sb="0" eb="3">
+      <t>イチバンマエ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>トウメイド</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2038,6 +2091,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2083,7 +2143,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2117,13 +2177,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2268,6 +2339,11 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3511,8 +3587,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7604760" y="1981200"/>
-          <a:ext cx="3200400" cy="1676400"/>
+          <a:off x="7658100" y="1981200"/>
+          <a:ext cx="3238500" cy="1676400"/>
           <a:chOff x="3281363" y="1981200"/>
           <a:chExt cx="3143250" cy="1676400"/>
         </a:xfrm>
@@ -4164,8 +4240,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3307080" y="1981200"/>
-          <a:ext cx="3200400" cy="1676400"/>
+          <a:off x="3308985" y="1981200"/>
+          <a:ext cx="3238500" cy="1676400"/>
           <a:chOff x="3307080" y="1981200"/>
           <a:chExt cx="3200400" cy="1676400"/>
         </a:xfrm>
@@ -5391,8 +5467,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3444240" y="5943600"/>
-          <a:ext cx="3200400" cy="1676400"/>
+          <a:off x="3448050" y="5943600"/>
+          <a:ext cx="3238500" cy="1676400"/>
           <a:chOff x="3281363" y="1981200"/>
           <a:chExt cx="3143250" cy="1676400"/>
         </a:xfrm>
@@ -7802,8 +7878,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7764780" y="9448800"/>
-          <a:ext cx="3200400" cy="1676400"/>
+          <a:off x="7820025" y="9448800"/>
+          <a:ext cx="3238500" cy="1676400"/>
           <a:chOff x="3281363" y="1981200"/>
           <a:chExt cx="3143250" cy="1676400"/>
         </a:xfrm>
@@ -8268,8 +8344,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3596640" y="23332440"/>
-          <a:ext cx="3200400" cy="1676400"/>
+          <a:off x="3600450" y="23332440"/>
+          <a:ext cx="3238500" cy="1676400"/>
           <a:chOff x="9121140" y="21183600"/>
           <a:chExt cx="3200400" cy="1676400"/>
         </a:xfrm>
@@ -12235,25 +12311,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2D295A-9295-46AC-88E4-F7ADF9D99499}">
   <dimension ref="B1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20:H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="5" max="5" width="13.19921875" customWidth="1"/>
-    <col min="6" max="6" width="7.19921875" customWidth="1"/>
-    <col min="7" max="7" width="21.3984375" customWidth="1"/>
-    <col min="8" max="8" width="23.8984375" customWidth="1"/>
+    <col min="5" max="5" width="13.1875" customWidth="1"/>
+    <col min="6" max="6" width="7.1875" customWidth="1"/>
+    <col min="7" max="7" width="21.375" customWidth="1"/>
+    <col min="8" max="8" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="32.25" x14ac:dyDescent="0.7">
       <c r="B1" s="3"/>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
@@ -12267,7 +12343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E5" s="14">
         <v>45973</v>
       </c>
@@ -12281,7 +12357,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E6" s="14">
         <v>46003</v>
       </c>
@@ -12295,7 +12371,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E7" s="14">
         <v>45973</v>
       </c>
@@ -12309,7 +12385,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E8" s="14">
         <v>45974</v>
       </c>
@@ -12323,7 +12399,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E9" s="14">
         <v>45974</v>
       </c>
@@ -12337,7 +12413,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E10" s="14">
         <v>45974</v>
       </c>
@@ -12351,7 +12427,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E11" s="14">
         <v>45974</v>
       </c>
@@ -12365,7 +12441,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E12" s="25">
         <v>45979</v>
       </c>
@@ -12379,7 +12455,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E13" s="25">
         <v>45979</v>
       </c>
@@ -12393,7 +12469,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E14" s="14">
         <v>45981</v>
       </c>
@@ -12407,7 +12483,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E15" s="30">
         <v>45996</v>
       </c>
@@ -12421,7 +12497,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E16" s="30">
         <v>45996</v>
       </c>
@@ -12435,7 +12511,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E17" s="14">
         <v>45996</v>
       </c>
@@ -12449,7 +12525,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E18" s="14">
         <v>46007</v>
       </c>
@@ -12463,7 +12539,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E19" s="14">
         <v>46009</v>
       </c>
@@ -12477,7 +12553,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E20" s="14">
         <v>46010</v>
       </c>
@@ -12504,13 +12580,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="20" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12521,77 +12597,77 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="18"/>
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="18"/>
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="18"/>
       <c r="D12" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D33" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B40" s="20"/>
       <c r="C40" s="10"/>
       <c r="E40" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A42" s="16">
         <v>45974</v>
       </c>
@@ -12602,103 +12678,103 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E44" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F46" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F48" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G49" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F51" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G53" s="27" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H54" s="26" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="2:8" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:8" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B56" s="20"/>
       <c r="C56" s="10"/>
       <c r="E56" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E58" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E60" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E68" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E70" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="2:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B72" s="20"/>
       <c r="C72" s="10"/>
       <c r="E72" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E74" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E76" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E82" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E84" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B86" s="20"/>
       <c r="C86" s="10"/>
       <c r="E86" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A88" s="16">
         <v>45974</v>
       </c>
@@ -12709,22 +12785,22 @@
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E106" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E108" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E110" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="112" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A112" s="32">
         <v>45996</v>
       </c>
@@ -12735,42 +12811,42 @@
         <v>143</v>
       </c>
     </row>
-    <row r="114" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E114" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="116" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E116" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="118" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E118" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="120" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F120" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="122" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G122" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="124" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G124" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="126" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F126" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="128" spans="2:7" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:7" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B128" s="21"/>
       <c r="D128" s="11" t="s">
         <v>37</v>
@@ -12791,13 +12867,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="20" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12808,150 +12884,150 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="36"/>
       <c r="B2" s="37"/>
       <c r="D2" s="38"/>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="34"/>
       <c r="B3" s="35"/>
       <c r="D3" s="39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="42"/>
     </row>
-    <row r="5" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B5" s="42"/>
       <c r="D5" s="41" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="42"/>
     </row>
-    <row r="7" spans="1:4" s="39" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" s="39" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="43"/>
       <c r="D7" s="39" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B8" s="42"/>
     </row>
-    <row r="9" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B9" s="42"/>
       <c r="D9" s="41" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B10" s="42"/>
     </row>
-    <row r="11" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B11" s="42"/>
       <c r="D11" s="41" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="42"/>
     </row>
-    <row r="13" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B13" s="42"/>
     </row>
-    <row r="14" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B14" s="42"/>
     </row>
-    <row r="15" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B15" s="42"/>
     </row>
-    <row r="16" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B16" s="42"/>
     </row>
-    <row r="17" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B17" s="42"/>
     </row>
-    <row r="18" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B18" s="42"/>
     </row>
-    <row r="19" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B19" s="42"/>
     </row>
-    <row r="20" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B20" s="42"/>
     </row>
-    <row r="21" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B21" s="42"/>
     </row>
-    <row r="22" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B22" s="42"/>
     </row>
-    <row r="23" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B23" s="42"/>
     </row>
-    <row r="24" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B24" s="42"/>
     </row>
-    <row r="25" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B25" s="42"/>
     </row>
-    <row r="26" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B26" s="42"/>
     </row>
-    <row r="27" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B27" s="42"/>
       <c r="E27" s="41" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B28" s="42"/>
     </row>
-    <row r="29" spans="2:5" s="39" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:5" s="39" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B29" s="43"/>
       <c r="D29" s="39" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B30" s="42"/>
     </row>
-    <row r="31" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B31" s="42"/>
       <c r="D31" s="41" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B32" s="42"/>
     </row>
-    <row r="33" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B33" s="42"/>
       <c r="E33" s="41" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B34" s="42"/>
     </row>
-    <row r="35" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B35" s="42"/>
     </row>
-    <row r="36" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B36" s="42"/>
     </row>
-    <row r="37" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B37" s="42"/>
     </row>
-    <row r="38" spans="1:5" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A38" s="36"/>
       <c r="B38" s="37"/>
       <c r="D38" s="40"/>
     </row>
-    <row r="39" spans="1:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B39" s="21"/>
       <c r="D39" s="11" t="s">
         <v>37</v>
@@ -12974,13 +13050,13 @@
       <selection activeCell="A133" sqref="A133:AK149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="20" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12991,80 +13067,80 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="18"/>
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="18"/>
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="18"/>
       <c r="D12" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E31" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E34" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D57" t="s">
         <v>61</v>
       </c>
@@ -13072,24 +13148,24 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:19" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:19" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B59" s="20"/>
       <c r="C59" s="10"/>
       <c r="E59" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E61" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E63" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A64" s="16">
         <v>45979</v>
       </c>
@@ -13100,7 +13176,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A65" s="16">
         <v>45975</v>
       </c>
@@ -13114,22 +13190,22 @@
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G66" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G67" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A72" s="16">
         <v>45981</v>
       </c>
@@ -13140,66 +13216,66 @@
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E74" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F75" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F76" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E78" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B81" s="20"/>
       <c r="C81" s="10"/>
       <c r="E81" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E83" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E85" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E86" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E87" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B90" s="20"/>
       <c r="C90" s="10"/>
       <c r="E90" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E92" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A94" s="16">
         <v>45974</v>
       </c>
@@ -13210,17 +13286,17 @@
         <v>67</v>
       </c>
     </row>
-    <row r="97" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="X97" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="99" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="X99" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="101" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E101" t="s">
         <v>68</v>
       </c>
@@ -13231,7 +13307,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="102" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E102" t="s">
         <v>69</v>
       </c>
@@ -13242,7 +13318,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="103" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E103" t="s">
         <v>70</v>
       </c>
@@ -13253,96 +13329,96 @@
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E105" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F106" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="108" spans="2:24" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:24" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B108" s="20"/>
       <c r="C108" s="10"/>
       <c r="E108" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E110" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="111" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E111" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="112" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E112" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="113" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E113" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="114" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E114" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="116" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E116" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="118" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E118" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="119" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F119" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="120" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E120" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="121" spans="2:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B121" s="20"/>
       <c r="C121" s="10"/>
       <c r="E121" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="123" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E123" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="125" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E125" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="127" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F127" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="129" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F129" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="133" spans="1:32" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:32" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A133" s="24">
         <v>45979</v>
       </c>
@@ -13354,17 +13430,17 @@
         <v>117</v>
       </c>
     </row>
-    <row r="135" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E135" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="137" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F137" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="140" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E140" t="s">
         <v>124</v>
       </c>
@@ -13375,7 +13451,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="149" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F149" t="s">
         <v>120</v>
       </c>
@@ -13386,7 +13462,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="151" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A151" s="16">
         <v>45996</v>
       </c>
@@ -13397,12 +13473,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="168" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F168" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="169" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G169" t="s">
         <v>136</v>
       </c>
@@ -13410,24 +13486,24 @@
         <v>137</v>
       </c>
     </row>
-    <row r="171" spans="2:29" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:29" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B171" s="20"/>
       <c r="C171" s="10"/>
       <c r="E171" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="173" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E173" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="175" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F175" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="182" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B182" s="21"/>
       <c r="D182" s="11" t="s">
         <v>37</v>
@@ -13448,13 +13524,13 @@
   <sheetViews>
     <sheetView topLeftCell="A57" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.19921875" defaultRowHeight="13.2" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.1875" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="13.8984375" customWidth="1"/>
-    <col min="2" max="2" width="17.69921875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="17.6875" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13465,7 +13541,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="16">
         <v>46009</v>
       </c>
@@ -13473,71 +13549,71 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" s="8" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="18"/>
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" s="8" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="18"/>
       <c r="D7" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E24" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E25" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E26" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="2:5" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:5" s="9" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B29" s="20"/>
       <c r="C29" s="10"/>
       <c r="E29" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E31" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:12" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F44" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:12" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G45" t="s">
         <v>162</v>
       </c>
@@ -13545,91 +13621,91 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="2:12" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:12" s="9" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B47" s="20"/>
       <c r="C47" s="10"/>
       <c r="E47" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="5:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E49" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="50" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="5:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F50" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="5:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G52" s="27" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="5:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G53" s="27"/>
     </row>
-    <row r="54" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="5:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E54" t="s">
         <v>165</v>
       </c>
       <c r="G54" s="27"/>
     </row>
-    <row r="55" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="5:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G55" s="27"/>
     </row>
-    <row r="56" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="5:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F56" s="44" t="s">
         <v>96</v>
       </c>
       <c r="G56" s="27"/>
     </row>
-    <row r="57" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="5:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G57" s="27"/>
     </row>
-    <row r="58" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="5:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F58" s="44" t="s">
         <v>166</v>
       </c>
       <c r="G58" s="45"/>
     </row>
-    <row r="59" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="5:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G59" s="27"/>
     </row>
-    <row r="60" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="5:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F60" s="44" t="s">
         <v>167</v>
       </c>
       <c r="G60" s="27"/>
     </row>
-    <row r="61" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="5:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G61" s="27"/>
     </row>
-    <row r="62" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="5:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F62" s="44" t="s">
         <v>168</v>
       </c>
       <c r="G62" s="27"/>
     </row>
-    <row r="63" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="5:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G63" s="27"/>
     </row>
-    <row r="64" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="5:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E64" s="46" t="s">
         <v>169</v>
       </c>
       <c r="G64" s="27"/>
     </row>
-    <row r="65" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G65" s="27"/>
     </row>
-    <row r="66" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G66" s="46" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="67" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G67" s="27"/>
       <c r="I67" s="44" t="s">
         <v>166</v>
@@ -13638,39 +13714,39 @@
         <v>171</v>
       </c>
     </row>
-    <row r="68" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G68" s="27"/>
     </row>
-    <row r="69" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G69" s="27"/>
     </row>
-    <row r="70" spans="2:15" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:15" s="9" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B70" s="20"/>
       <c r="C70" s="10"/>
       <c r="E70" s="9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="71" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G71" s="27"/>
     </row>
-    <row r="72" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E72" t="s">
         <v>165</v>
       </c>
       <c r="G72" s="27"/>
     </row>
-    <row r="73" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G73" s="27"/>
     </row>
-    <row r="74" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F74" s="44" t="s">
         <v>174</v>
       </c>
       <c r="G74" s="45"/>
       <c r="H74" s="44"/>
     </row>
-    <row r="75" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F75" s="44" t="s">
         <v>54</v>
       </c>
@@ -13679,60 +13755,60 @@
       </c>
       <c r="H75" s="44"/>
     </row>
-    <row r="76" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G76" s="27"/>
     </row>
-    <row r="77" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F77" t="s">
         <v>176</v>
       </c>
       <c r="G77" s="27"/>
     </row>
-    <row r="78" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G78" s="27"/>
     </row>
-    <row r="79" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G79" s="27" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="80" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G80" s="27"/>
     </row>
-    <row r="81" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G81" s="27"/>
     </row>
-    <row r="82" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G82" s="27"/>
     </row>
-    <row r="83" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G83" s="27"/>
     </row>
-    <row r="85" spans="1:7" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" s="9" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B85" s="20"/>
       <c r="C85" s="10"/>
       <c r="E85" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E87" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F89" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" s="9" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B91" s="20"/>
       <c r="C91" s="10"/>
       <c r="E91" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A93" s="16">
         <v>45996</v>
       </c>
@@ -13743,17 +13819,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F94" s="27" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F96" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="97" spans="1:32" s="23" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:32" s="23" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A97" s="24">
         <v>46009</v>
       </c>
@@ -13765,17 +13841,17 @@
         <v>117</v>
       </c>
     </row>
-    <row r="99" spans="1:32" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:32" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E99" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="101" spans="1:32" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:32" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F101" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="104" spans="1:32" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:32" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E104" t="s">
         <v>124</v>
       </c>
@@ -13786,7 +13862,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="113" spans="5:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="5:36" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F113" t="s">
         <v>120</v>
       </c>
@@ -13797,15 +13873,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="116" spans="5:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="5:36" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E116" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="127" spans="5:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="5:36" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AJ127" s="44"/>
     </row>
-    <row r="137" spans="2:5" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:5" s="1" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B137" s="21"/>
       <c r="E137" s="11" t="s">
         <v>37</v>
@@ -13820,19 +13896,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6888B70-F55A-4F02-9108-5680AE2CD0C9}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="20" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13843,50 +13919,85 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="36"/>
       <c r="B2" s="37"/>
       <c r="D2" s="38"/>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="34"/>
       <c r="B3" s="35"/>
       <c r="D3" s="39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="42"/>
     </row>
-    <row r="5" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B5" s="42"/>
       <c r="D5" s="41" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="42"/>
     </row>
-    <row r="7" spans="1:5" s="39" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" s="39" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="43"/>
       <c r="D7" s="39" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B8" s="42"/>
     </row>
-    <row r="9" spans="1:5" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="36"/>
-      <c r="B9" s="37"/>
-      <c r="D9" s="40"/>
-    </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="21"/>
-      <c r="D10" s="11" t="s">
+    <row r="9" spans="1:8" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B9" s="52"/>
+      <c r="E9" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+    </row>
+    <row r="10" spans="1:8" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B10" s="49"/>
+    </row>
+    <row r="11" spans="1:8" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B11" s="49"/>
+      <c r="F11" s="50" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B12" s="49"/>
+    </row>
+    <row r="13" spans="1:8" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B13" s="49"/>
+      <c r="G13" s="48" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B14" s="49"/>
+      <c r="G14" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="H14" s="48" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37"/>
+      <c r="D15" s="40"/>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B16" s="21"/>
+      <c r="D16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E16" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/合成後project/Document/２.ハートゲーム資料/2.ハートゲーム画面仕様.xlsx
+++ b/合成後project/Document/２.ハートゲーム資料/2.ハートゲーム画面仕様.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\合成後project\Document\２.ハートゲーム資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5851F197-1150-4B3A-AA36-6AEFC69DBF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB3E2E2-E577-4857-A490-420F0F9261B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="190">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="4">
@@ -1957,6 +1957,42 @@
       <t>トウメイド</t>
     </rPh>
     <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>開始時</t>
+    <rPh sb="0" eb="3">
+      <t>カイシジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一番前にある黒い板の透明度を０％から100%にする</t>
+    <rPh sb="0" eb="3">
+      <t>イチバンマエ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>トウメイド</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>画面遷移ボタンを押した時</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -13896,11 +13932,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6888B70-F55A-4F02-9108-5680AE2CD0C9}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
@@ -13971,33 +14005,62 @@
     </row>
     <row r="12" spans="1:8" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="49"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="48" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B13" s="49"/>
-      <c r="G13" s="48" t="s">
-        <v>184</v>
-      </c>
+      <c r="F13" s="50"/>
     </row>
     <row r="14" spans="1:8" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B14" s="49"/>
-      <c r="G14" s="48" t="s">
+      <c r="F14" s="50"/>
+      <c r="H14" s="48" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B15" s="49"/>
+      <c r="F15" s="50"/>
+    </row>
+    <row r="16" spans="1:8" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B16" s="49"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="48" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B17" s="49"/>
+    </row>
+    <row r="18" spans="1:9" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B18" s="49"/>
+      <c r="H18" s="48" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B19" s="49"/>
+      <c r="H19" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="H14" s="48" t="s">
+      <c r="I19" s="48" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37"/>
-      <c r="D15" s="40"/>
-    </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B16" s="21"/>
-      <c r="D16" s="11" t="s">
+    <row r="20" spans="1:9" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
+      <c r="D20" s="40"/>
+    </row>
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B21" s="21"/>
+      <c r="D21" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="12"/>
+      <c r="E21" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/合成後project/Document/２.ハートゲーム資料/2.ハートゲーム画面仕様.xlsx
+++ b/合成後project/Document/２.ハートゲーム資料/2.ハートゲーム画面仕様.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\合成後project\Document\２.ハートゲーム資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tt\合成後project\Document\２.ハートゲーム資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB3E2E2-E577-4857-A490-420F0F9261B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB582834-154D-480E-92CB-06DE656B7EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="195">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="4">
@@ -1991,6 +1991,92 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイムアップ仕様</t>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>timeの数値が０になった時「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ＴＩＭＥＵＰ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」と画面中央に赤文字で表示します</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>ガメンチュウオウ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>アカモジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示してから３秒後に画面ワイプを挟んでランキングに移行します</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ビョウゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ハサ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字はプログラムで表示してほしいです</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>追加仕様</t>
+    <rPh sb="0" eb="4">
+      <t>ツイカシヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2230,7 +2316,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2380,6 +2466,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3623,8 +3712,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7658100" y="1981200"/>
-          <a:ext cx="3238500" cy="1676400"/>
+          <a:off x="7604760" y="1981200"/>
+          <a:ext cx="3200400" cy="1676400"/>
           <a:chOff x="3281363" y="1981200"/>
           <a:chExt cx="3143250" cy="1676400"/>
         </a:xfrm>
@@ -4252,482 +4341,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="89" name="グループ化 88">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19FC4E4B-AB18-4141-ACE6-0C5AFC9726EF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="3308985" y="1981200"/>
-          <a:ext cx="3238500" cy="1676400"/>
-          <a:chOff x="3307080" y="1981200"/>
-          <a:chExt cx="3200400" cy="1676400"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="25" name="グループ化 24">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D59D94E8-0CEB-40DB-8B3A-13605B5371B8}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="3307080" y="1981200"/>
-            <a:ext cx="3200400" cy="1676400"/>
-            <a:chOff x="3281363" y="1981200"/>
-            <a:chExt cx="3143250" cy="1676400"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="18" name="正方形/長方形 17">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D56BCAB-2C8B-4614-AB24-F8B93996F9D7}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3281363" y="1981200"/>
-              <a:ext cx="3143250" cy="1676400"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="44450">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="19" name="正方形/長方形 18">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AAB2F2A-B6C7-402E-BF8C-09D60391CC6E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4138612" y="1981200"/>
-              <a:ext cx="1414464" cy="1676400"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="31750">
-              <a:solidFill>
-                <a:schemeClr val="bg2"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="20" name="二等辺三角形 19">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D72F30D9-C117-4495-864A-566B1910389E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm rot="10800000">
-              <a:off x="5795963" y="2895600"/>
-              <a:ext cx="471487" cy="609600"/>
-            </a:xfrm>
-            <a:prstGeom prst="triangle">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="40000"/>
-                <a:lumOff val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="21" name="スマイル 20">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A4AA6F7-3F49-4A0C-A5F5-2363484F1833}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5795963" y="2438400"/>
-              <a:ext cx="471487" cy="419100"/>
-            </a:xfrm>
-            <a:prstGeom prst="smileyFace">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="40000"/>
-                <a:lumOff val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="22" name="テキスト ボックス 21">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8899616F-EAB2-4201-990E-065A656636A2}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3443288" y="2138362"/>
-              <a:ext cx="628650" cy="914400"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="r"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
-                <a:t>time</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr algn="r"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
-                <a:t>99</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr algn="r"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
-                <a:t>score</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr algn="r"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
-                <a:t>9999</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="24" name="図 23">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3B309EC-F921-4A32-A58B-76F95F6F3A69}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4590005" y="3200400"/>
-              <a:ext cx="456057" cy="342900"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="40" name="ハート 39">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E65AD856-C76E-47EA-B699-A73E94384BCB}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4564380" y="2438400"/>
-            <a:ext cx="160020" cy="152400"/>
-          </a:xfrm>
-          <a:prstGeom prst="heart">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="43" name="ハート 42">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5AB736E-21E7-4230-920B-D19DF268598C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4716780" y="2590800"/>
-            <a:ext cx="160020" cy="152400"/>
-          </a:xfrm>
-          <a:prstGeom prst="heart">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
@@ -5503,8 +5116,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3448050" y="5943600"/>
-          <a:ext cx="3238500" cy="1676400"/>
+          <a:off x="3444240" y="5943600"/>
+          <a:ext cx="3200400" cy="1676400"/>
           <a:chOff x="3281363" y="1981200"/>
           <a:chExt cx="3143250" cy="1676400"/>
         </a:xfrm>
@@ -7066,316 +6679,752 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>147634</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>147628</xdr:rowOff>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>147634</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>141913</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="ハート 74">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="グループ化 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E30F5E39-ECCA-43AB-8981-ABA17F2DC895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36668544-8DFF-43E8-A724-FE3CE10FE728}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3433759" y="3043228"/>
-          <a:ext cx="161925" cy="146685"/>
+          <a:off x="3307080" y="2034540"/>
+          <a:ext cx="3200400" cy="1789747"/>
+          <a:chOff x="3307080" y="2034540"/>
+          <a:chExt cx="3200400" cy="1789747"/>
         </a:xfrm>
-        <a:prstGeom prst="heart">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="89" name="グループ化 88">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19FC4E4B-AB18-4141-ACE6-0C5AFC9726EF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3307080" y="2034540"/>
+            <a:ext cx="3200400" cy="1676400"/>
+            <a:chOff x="3307080" y="1981200"/>
+            <a:chExt cx="3200400" cy="1676400"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="25" name="グループ化 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D59D94E8-0CEB-40DB-8B3A-13605B5371B8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="3307080" y="1981200"/>
+              <a:ext cx="3200400" cy="1676400"/>
+              <a:chOff x="3281363" y="1981200"/>
+              <a:chExt cx="3143250" cy="1676400"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="18" name="正方形/長方形 17">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D56BCAB-2C8B-4614-AB24-F8B93996F9D7}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3281363" y="1981200"/>
+                <a:ext cx="3143250" cy="1676400"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="44450">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="19" name="正方形/長方形 18">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AAB2F2A-B6C7-402E-BF8C-09D60391CC6E}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4138612" y="1981200"/>
+                <a:ext cx="1414464" cy="1676400"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="31750">
+                <a:solidFill>
+                  <a:schemeClr val="bg2"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="20" name="二等辺三角形 19">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D72F30D9-C117-4495-864A-566B1910389E}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="10800000">
+                <a:off x="5795963" y="2895600"/>
+                <a:ext cx="471487" cy="609600"/>
+              </a:xfrm>
+              <a:prstGeom prst="triangle">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="21" name="スマイル 20">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A4AA6F7-3F49-4A0C-A5F5-2363484F1833}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="5795963" y="2438400"/>
+                <a:ext cx="471487" cy="419100"/>
+              </a:xfrm>
+              <a:prstGeom prst="smileyFace">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="22" name="テキスト ボックス 21">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8899616F-EAB2-4201-990E-065A656636A2}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3443288" y="2138362"/>
+                <a:ext cx="628650" cy="914400"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="r"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+                  <a:t>time</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr algn="r"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+                  <a:t>99</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr algn="r"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+                  <a:t>score</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr algn="r"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+                  <a:t>9999</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="24" name="図 23">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3B309EC-F921-4A32-A58B-76F95F6F3A69}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4590005" y="3200400"/>
+                <a:ext cx="456057" cy="342900"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+          </xdr:pic>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="40" name="ハート 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E65AD856-C76E-47EA-B699-A73E94384BCB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4564380" y="2438400"/>
+              <a:ext cx="160020" cy="152400"/>
+            </a:xfrm>
+            <a:prstGeom prst="heart">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="43" name="ハート 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5AB736E-21E7-4230-920B-D19DF268598C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4716780" y="2590800"/>
+              <a:ext cx="160020" cy="152400"/>
+            </a:xfrm>
+            <a:prstGeom prst="heart">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="75" name="ハート 74">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E30F5E39-ECCA-43AB-8981-ABA17F2DC895}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3431854" y="3043228"/>
+            <a:ext cx="160020" cy="146685"/>
+          </a:xfrm>
+          <a:prstGeom prst="heart">
+            <a:avLst/>
+          </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>57146</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>143389</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>51431</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="ハート 76">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A36AA8AA-13AC-4A4C-9CD2-78BB9ED899FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="3257546"/>
-          <a:ext cx="162439" cy="146685"/>
-        </a:xfrm>
-        <a:prstGeom prst="heart">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="77" name="ハート 76">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A36AA8AA-13AC-4A4C-9CD2-78BB9ED899FA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3427095" y="3257546"/>
+            <a:ext cx="160534" cy="146685"/>
+          </a:xfrm>
+          <a:prstGeom prst="heart">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="86" name="ハート 85">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{726072CD-0700-4F43-AA8C-A334AEC2B444}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3427095" y="3452813"/>
+            <a:ext cx="160534" cy="146685"/>
+          </a:xfrm>
+          <a:prstGeom prst="heart">
+            <a:avLst/>
+          </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="accent4"/>
           </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>143389</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>94298</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="ハート 85">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{726072CD-0700-4F43-AA8C-A334AEC2B444}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="3452813"/>
-          <a:ext cx="162439" cy="146685"/>
-        </a:xfrm>
-        <a:prstGeom prst="heart">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>14805</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>86243</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="テキスト ボックス 86">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{334A3FD9-8C28-4AA7-8560-297E7B3F1EB1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3624780" y="2976562"/>
-          <a:ext cx="557213" cy="847725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="87" name="テキスト ボックス 86">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{334A3FD9-8C28-4AA7-8560-297E7B3F1EB1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3619065" y="2976562"/>
+            <a:ext cx="551498" cy="847725"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>100</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>点</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>100</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>-50</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>点</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>点</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>-50</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>点</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>300</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>点</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>300</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>点</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -7914,8 +7963,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7820025" y="9448800"/>
-          <a:ext cx="3238500" cy="1676400"/>
+          <a:off x="7764780" y="9448800"/>
+          <a:ext cx="3200400" cy="1676400"/>
           <a:chOff x="3281363" y="1981200"/>
           <a:chExt cx="3143250" cy="1676400"/>
         </a:xfrm>
@@ -8380,8 +8429,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3600450" y="23332440"/>
-          <a:ext cx="3238500" cy="1676400"/>
+          <a:off x="3596640" y="23332440"/>
+          <a:ext cx="3200400" cy="1676400"/>
           <a:chOff x="9121140" y="21183600"/>
           <a:chExt cx="3200400" cy="1676400"/>
         </a:xfrm>
@@ -8817,6 +8866,830 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>82867</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="100" name="グループ化 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59BF2F58-8F3D-4EC7-850B-6211244DBF38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4023360" y="27706320"/>
+          <a:ext cx="3200400" cy="1789747"/>
+          <a:chOff x="3307080" y="2034540"/>
+          <a:chExt cx="3200400" cy="1789747"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="103" name="グループ化 102">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BAB9702-7DB3-410E-A04E-EBB2926701AA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3307080" y="2034540"/>
+            <a:ext cx="3200400" cy="1676400"/>
+            <a:chOff x="3307080" y="1981200"/>
+            <a:chExt cx="3200400" cy="1676400"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="113" name="グループ化 112">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DDD603D-C6AC-40FC-B511-C1F3D1DDFC0D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="3307080" y="1981200"/>
+              <a:ext cx="3200400" cy="1676400"/>
+              <a:chOff x="3281363" y="1981200"/>
+              <a:chExt cx="3143250" cy="1676400"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="116" name="正方形/長方形 115">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A804651-A6BC-4FFE-A09C-D5A62BBF5FC6}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3281363" y="1981200"/>
+                <a:ext cx="3143250" cy="1676400"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="44450">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="117" name="正方形/長方形 116">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46BC2281-918F-4E11-92F5-5A0EF8BB00F6}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4138612" y="1981200"/>
+                <a:ext cx="1414464" cy="1676400"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="31750">
+                <a:solidFill>
+                  <a:schemeClr val="bg2"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="118" name="二等辺三角形 117">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD425916-3612-4FBC-ACF8-86763C7AD572}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="10800000">
+                <a:off x="5795963" y="2895600"/>
+                <a:ext cx="471487" cy="609600"/>
+              </a:xfrm>
+              <a:prstGeom prst="triangle">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="119" name="スマイル 118">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D83CCDD-DC42-49CE-BF15-3C446D3FCA28}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="5795963" y="2438400"/>
+                <a:ext cx="471487" cy="419100"/>
+              </a:xfrm>
+              <a:prstGeom prst="smileyFace">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="120" name="テキスト ボックス 119">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5471EA41-6712-4F70-B289-2812629EA6B9}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3443288" y="2138362"/>
+                <a:ext cx="628650" cy="914400"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="r"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+                  <a:t>time</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr algn="r"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+                  <a:t>99</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr algn="r"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+                  <a:t>score</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr algn="r"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+                  <a:t>9999</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="121" name="図 120">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21981399-3643-46E6-9229-6D42ECA50C59}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4590005" y="3200400"/>
+                <a:ext cx="456057" cy="342900"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+          </xdr:pic>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="114" name="ハート 113">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0CA74E5-3994-4E0C-922A-02AED732C695}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4564380" y="2438400"/>
+              <a:ext cx="160020" cy="152400"/>
+            </a:xfrm>
+            <a:prstGeom prst="heart">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="115" name="ハート 114">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F9EC936-6F02-4504-9BB2-BB9274010C90}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4716780" y="2590800"/>
+              <a:ext cx="160020" cy="152400"/>
+            </a:xfrm>
+            <a:prstGeom prst="heart">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="104" name="ハート 103">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8226DE10-D3CE-461F-92CA-1E386FB54CD9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3431854" y="3043228"/>
+            <a:ext cx="160020" cy="146685"/>
+          </a:xfrm>
+          <a:prstGeom prst="heart">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="110" name="ハート 109">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D7915E1-8044-48B5-A105-B38F1EA1B678}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3427095" y="3257546"/>
+            <a:ext cx="160534" cy="146685"/>
+          </a:xfrm>
+          <a:prstGeom prst="heart">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="111" name="ハート 110">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4356DCCC-E844-42E5-9A12-57E188458F4D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3427095" y="3452813"/>
+            <a:ext cx="160534" cy="146685"/>
+          </a:xfrm>
+          <a:prstGeom prst="heart">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="112" name="テキスト ボックス 111">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6DF5756-CFE6-4F22-B917-B42EAA6418B4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3619065" y="2976562"/>
+            <a:ext cx="551498" cy="847725"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>100</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>点</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>-50</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>点</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>300</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>点</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB320F97-7476-41E6-AB41-7B4E317EB219}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4899660" y="28194000"/>
+          <a:ext cx="1516380" cy="601980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TIMEUP</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -12345,27 +13218,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2D295A-9295-46AC-88E4-F7ADF9D99499}">
-  <dimension ref="B1:H20"/>
+  <dimension ref="B1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:H20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="13.1875" customWidth="1"/>
-    <col min="6" max="6" width="7.1875" customWidth="1"/>
-    <col min="7" max="7" width="21.375" customWidth="1"/>
-    <col min="8" max="8" width="23.875" customWidth="1"/>
+    <col min="5" max="5" width="13.19921875" customWidth="1"/>
+    <col min="6" max="6" width="7.19921875" customWidth="1"/>
+    <col min="7" max="7" width="21.3984375" customWidth="1"/>
+    <col min="8" max="8" width="23.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="32.25" x14ac:dyDescent="0.7">
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.45">
       <c r="B1" s="3"/>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
@@ -12379,7 +13252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E5" s="14">
         <v>45973</v>
       </c>
@@ -12393,7 +13266,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E6" s="14">
         <v>46003</v>
       </c>
@@ -12407,7 +13280,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E7" s="14">
         <v>45973</v>
       </c>
@@ -12421,7 +13294,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E8" s="14">
         <v>45974</v>
       </c>
@@ -12435,7 +13308,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E9" s="14">
         <v>45974</v>
       </c>
@@ -12449,7 +13322,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E10" s="14">
         <v>45974</v>
       </c>
@@ -12463,7 +13336,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E11" s="14">
         <v>45974</v>
       </c>
@@ -12477,7 +13350,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E12" s="25">
         <v>45979</v>
       </c>
@@ -12491,7 +13364,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E13" s="25">
         <v>45979</v>
       </c>
@@ -12505,7 +13378,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E14" s="14">
         <v>45981</v>
       </c>
@@ -12519,7 +13392,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E15" s="30">
         <v>45996</v>
       </c>
@@ -12533,7 +13406,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E16" s="30">
         <v>45996</v>
       </c>
@@ -12547,7 +13420,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E17" s="14">
         <v>45996</v>
       </c>
@@ -12561,7 +13434,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E18" s="14">
         <v>46007</v>
       </c>
@@ -12575,7 +13448,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E19" s="14">
         <v>46009</v>
       </c>
@@ -12589,7 +13462,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E20" s="14">
         <v>46010</v>
       </c>
@@ -12601,6 +13474,20 @@
       </c>
       <c r="H20" s="22" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E21" s="14">
+        <v>46029</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -12616,13 +13503,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="20" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12633,77 +13520,77 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="18"/>
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="18"/>
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="18"/>
       <c r="D12" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D33" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="20"/>
       <c r="C40" s="10"/>
       <c r="E40" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="16">
         <v>45974</v>
       </c>
@@ -12714,103 +13601,103 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E44" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F46" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F48" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="49" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G49" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="51" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F51" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="53" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G53" s="27" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="54" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H54" s="26" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="2:8" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="56" spans="2:8" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="20"/>
       <c r="C56" s="10"/>
       <c r="E56" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="58" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E58" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E60" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="68" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E68" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="70" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E70" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="2:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="72" spans="2:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B72" s="20"/>
       <c r="C72" s="10"/>
       <c r="E72" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="74" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E74" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="76" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E76" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="82" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E82" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="84" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E84" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="86" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B86" s="20"/>
       <c r="C86" s="10"/>
       <c r="E86" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="88" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="16">
         <v>45974</v>
       </c>
@@ -12821,22 +13708,22 @@
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="106" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E106" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="108" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E108" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="110" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E110" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="112" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="112" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="32">
         <v>45996</v>
       </c>
@@ -12847,42 +13734,42 @@
         <v>143</v>
       </c>
     </row>
-    <row r="114" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="114" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E114" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="116" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="116" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E116" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="118" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="118" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E118" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="120" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="120" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F120" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="122" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="122" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G122" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="124" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="124" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G124" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="126" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="126" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F126" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="128" spans="2:7" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="128" spans="2:7" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B128" s="21"/>
       <c r="D128" s="11" t="s">
         <v>37</v>
@@ -12903,13 +13790,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="20" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12920,150 +13807,150 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:4" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="36"/>
       <c r="B2" s="37"/>
       <c r="D2" s="38"/>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="34"/>
       <c r="B3" s="35"/>
       <c r="D3" s="39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="42"/>
     </row>
-    <row r="5" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="42"/>
       <c r="D5" s="41" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="42"/>
     </row>
-    <row r="7" spans="1:4" s="39" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:4" s="39" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="43"/>
       <c r="D7" s="39" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="42"/>
     </row>
-    <row r="9" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="42"/>
       <c r="D9" s="41" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="42"/>
     </row>
-    <row r="11" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="42"/>
       <c r="D11" s="41" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="42"/>
     </row>
-    <row r="13" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="42"/>
     </row>
-    <row r="14" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="42"/>
     </row>
-    <row r="15" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="42"/>
     </row>
-    <row r="16" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:4" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="42"/>
     </row>
-    <row r="17" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="42"/>
     </row>
-    <row r="18" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="42"/>
     </row>
-    <row r="19" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="42"/>
     </row>
-    <row r="20" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="42"/>
     </row>
-    <row r="21" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="42"/>
     </row>
-    <row r="22" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="22" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="42"/>
     </row>
-    <row r="23" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="42"/>
     </row>
-    <row r="24" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="24" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="42"/>
     </row>
-    <row r="25" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="42"/>
     </row>
-    <row r="26" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="42"/>
     </row>
-    <row r="27" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="27" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="42"/>
       <c r="E27" s="41" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="28" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="42"/>
     </row>
-    <row r="29" spans="2:5" s="39" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="2:5" s="39" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="43"/>
       <c r="D29" s="39" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="42"/>
     </row>
-    <row r="31" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="42"/>
       <c r="D31" s="41" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="2:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="42"/>
     </row>
-    <row r="33" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="42"/>
       <c r="E33" s="41" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="42"/>
     </row>
-    <row r="35" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="42"/>
     </row>
-    <row r="36" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="42"/>
     </row>
-    <row r="37" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:5" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="42"/>
     </row>
-    <row r="38" spans="1:5" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:5" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="36"/>
       <c r="B38" s="37"/>
       <c r="D38" s="40"/>
     </row>
-    <row r="39" spans="1:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="21"/>
       <c r="D39" s="11" t="s">
         <v>37</v>
@@ -13080,19 +13967,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADC6AFD-B471-488C-91FA-BE2A4366C7FC}">
-  <dimension ref="A1:AF182"/>
+  <dimension ref="A1:AF195"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133:AK149"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="20" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13103,80 +13990,80 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="18"/>
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="18"/>
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="18"/>
       <c r="D12" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E31" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E34" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D57" t="s">
         <v>61</v>
       </c>
@@ -13184,24 +14071,24 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:19" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:19" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="20"/>
       <c r="C59" s="10"/>
       <c r="E59" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E61" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E63" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="16">
         <v>45979</v>
       </c>
@@ -13212,7 +14099,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="16">
         <v>45975</v>
       </c>
@@ -13226,22 +14113,22 @@
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G66" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G67" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="16">
         <v>45981</v>
       </c>
@@ -13252,66 +14139,66 @@
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E74" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="75" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F75" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F76" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="78" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E78" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="81" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B81" s="20"/>
       <c r="C81" s="10"/>
       <c r="E81" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="83" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E83" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E85" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="86" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E86" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="87" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E87" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="90" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B90" s="20"/>
       <c r="C90" s="10"/>
       <c r="E90" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="92" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E92" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="94" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="16">
         <v>45974</v>
       </c>
@@ -13322,17 +14209,17 @@
         <v>67</v>
       </c>
     </row>
-    <row r="97" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="97" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="X97" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="99" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="99" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="X99" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="101" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="101" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E101" t="s">
         <v>68</v>
       </c>
@@ -13343,7 +14230,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="102" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="102" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E102" t="s">
         <v>69</v>
       </c>
@@ -13354,7 +14241,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="103" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="103" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E103" t="s">
         <v>70</v>
       </c>
@@ -13365,96 +14252,96 @@
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="105" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E105" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="106" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F106" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="108" spans="2:24" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="108" spans="2:24" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B108" s="20"/>
       <c r="C108" s="10"/>
       <c r="E108" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="110" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E110" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="111" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="111" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E111" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="112" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="112" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E112" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="113" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="113" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E113" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="114" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="114" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E114" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="116" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="116" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E116" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="118" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="118" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E118" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="119" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="119" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F119" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="120" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="120" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E120" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="121" spans="2:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="121" spans="2:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B121" s="20"/>
       <c r="C121" s="10"/>
       <c r="E121" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="123" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="123" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E123" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="125" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="125" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E125" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="127" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="127" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F127" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="129" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="129" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F129" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="133" spans="1:32" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="133" spans="1:32" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="24">
         <v>45979</v>
       </c>
@@ -13466,17 +14353,17 @@
         <v>117</v>
       </c>
     </row>
-    <row r="135" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="135" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E135" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="137" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="137" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F137" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="140" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="140" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E140" t="s">
         <v>124</v>
       </c>
@@ -13487,7 +14374,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="149" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="149" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F149" t="s">
         <v>120</v>
       </c>
@@ -13498,7 +14385,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="151" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="151" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A151" s="16">
         <v>45996</v>
       </c>
@@ -13509,12 +14396,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="168" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="168" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F168" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="169" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="169" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G169" t="s">
         <v>136</v>
       </c>
@@ -13522,29 +14409,56 @@
         <v>137</v>
       </c>
     </row>
-    <row r="171" spans="2:29" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="171" spans="2:29" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B171" s="20"/>
       <c r="C171" s="10"/>
       <c r="E171" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="173" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="173" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E173" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="175" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="175" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F175" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="182" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B182" s="21"/>
-      <c r="D182" s="11" t="s">
+    <row r="177" spans="1:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A177" s="53">
+        <v>46029</v>
+      </c>
+      <c r="B177" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C177" s="10"/>
+      <c r="E177" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E179" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F180" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F181" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B195" s="21"/>
+      <c r="D195" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E182" s="12"/>
+      <c r="E195" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -13560,13 +14474,13 @@
   <sheetViews>
     <sheetView topLeftCell="A57" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.1875" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.19921875" defaultRowHeight="13.2" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="17.6875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="13.8984375" customWidth="1"/>
+    <col min="2" max="2" width="17.69921875" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13577,7 +14491,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="16">
         <v>46009</v>
       </c>
@@ -13585,71 +14499,71 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:5" s="8" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="18"/>
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:5" s="8" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="18"/>
       <c r="D7" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="24" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E24" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E25" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E26" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="27" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="2:5" s="9" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="2:5" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="20"/>
       <c r="C29" s="10"/>
       <c r="E29" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E31" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="44" spans="2:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F44" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="45" spans="2:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G45" t="s">
         <v>162</v>
       </c>
@@ -13657,91 +14571,91 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="2:12" s="9" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="47" spans="2:12" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="20"/>
       <c r="C47" s="10"/>
       <c r="E47" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="5:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="49" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E49" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="50" spans="5:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="50" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F50" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="5:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="52" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G52" s="27" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="5:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="53" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G53" s="27"/>
     </row>
-    <row r="54" spans="5:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="54" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E54" t="s">
         <v>165</v>
       </c>
       <c r="G54" s="27"/>
     </row>
-    <row r="55" spans="5:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="55" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G55" s="27"/>
     </row>
-    <row r="56" spans="5:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="56" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F56" s="44" t="s">
         <v>96</v>
       </c>
       <c r="G56" s="27"/>
     </row>
-    <row r="57" spans="5:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="57" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G57" s="27"/>
     </row>
-    <row r="58" spans="5:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="58" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F58" s="44" t="s">
         <v>166</v>
       </c>
       <c r="G58" s="45"/>
     </row>
-    <row r="59" spans="5:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G59" s="27"/>
     </row>
-    <row r="60" spans="5:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F60" s="44" t="s">
         <v>167</v>
       </c>
       <c r="G60" s="27"/>
     </row>
-    <row r="61" spans="5:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G61" s="27"/>
     </row>
-    <row r="62" spans="5:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="62" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F62" s="44" t="s">
         <v>168</v>
       </c>
       <c r="G62" s="27"/>
     </row>
-    <row r="63" spans="5:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="63" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G63" s="27"/>
     </row>
-    <row r="64" spans="5:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="64" spans="5:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E64" s="46" t="s">
         <v>169</v>
       </c>
       <c r="G64" s="27"/>
     </row>
-    <row r="65" spans="2:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="65" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G65" s="27"/>
     </row>
-    <row r="66" spans="2:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="66" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G66" s="46" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="67" spans="2:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="67" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G67" s="27"/>
       <c r="I67" s="44" t="s">
         <v>166</v>
@@ -13750,39 +14664,39 @@
         <v>171</v>
       </c>
     </row>
-    <row r="68" spans="2:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="68" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G68" s="27"/>
     </row>
-    <row r="69" spans="2:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="69" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G69" s="27"/>
     </row>
-    <row r="70" spans="2:15" s="9" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="70" spans="2:15" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B70" s="20"/>
       <c r="C70" s="10"/>
       <c r="E70" s="9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="71" spans="2:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="71" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G71" s="27"/>
     </row>
-    <row r="72" spans="2:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="72" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E72" t="s">
         <v>165</v>
       </c>
       <c r="G72" s="27"/>
     </row>
-    <row r="73" spans="2:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="73" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G73" s="27"/>
     </row>
-    <row r="74" spans="2:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="74" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F74" s="44" t="s">
         <v>174</v>
       </c>
       <c r="G74" s="45"/>
       <c r="H74" s="44"/>
     </row>
-    <row r="75" spans="2:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="75" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F75" s="44" t="s">
         <v>54</v>
       </c>
@@ -13791,60 +14705,60 @@
       </c>
       <c r="H75" s="44"/>
     </row>
-    <row r="76" spans="2:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="76" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G76" s="27"/>
     </row>
-    <row r="77" spans="2:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="77" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F77" t="s">
         <v>176</v>
       </c>
       <c r="G77" s="27"/>
     </row>
-    <row r="78" spans="2:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="78" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G78" s="27"/>
     </row>
-    <row r="79" spans="2:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="79" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G79" s="27" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="80" spans="2:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="80" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G80" s="27"/>
     </row>
-    <row r="81" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="81" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G81" s="27"/>
     </row>
-    <row r="82" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="82" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G82" s="27"/>
     </row>
-    <row r="83" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="83" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G83" s="27"/>
     </row>
-    <row r="85" spans="1:7" s="9" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:7" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B85" s="20"/>
       <c r="C85" s="10"/>
       <c r="E85" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="87" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E87" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="89" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F89" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="9" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="91" spans="1:7" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B91" s="20"/>
       <c r="C91" s="10"/>
       <c r="E91" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="93" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="16">
         <v>45996</v>
       </c>
@@ -13855,17 +14769,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="94" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F94" s="27" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="96" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F96" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="97" spans="1:32" s="23" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="97" spans="1:32" s="23" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="24">
         <v>46009</v>
       </c>
@@ -13877,17 +14791,17 @@
         <v>117</v>
       </c>
     </row>
-    <row r="99" spans="1:32" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="99" spans="1:32" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E99" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="101" spans="1:32" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="101" spans="1:32" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F101" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="104" spans="1:32" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="104" spans="1:32" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E104" t="s">
         <v>124</v>
       </c>
@@ -13898,7 +14812,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="113" spans="5:36" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="113" spans="5:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F113" t="s">
         <v>120</v>
       </c>
@@ -13909,15 +14823,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="116" spans="5:36" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="116" spans="5:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E116" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="127" spans="5:36" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="127" spans="5:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AJ127" s="44"/>
     </row>
-    <row r="137" spans="2:5" s="1" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="137" spans="2:5" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B137" s="21"/>
       <c r="E137" s="11" t="s">
         <v>37</v>
@@ -13934,15 +14848,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6888B70-F55A-4F02-9108-5680AE2CD0C9}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="20" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13953,40 +14867,40 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:8" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="36"/>
       <c r="B2" s="37"/>
       <c r="D2" s="38"/>
     </row>
-    <row r="3" spans="1:8" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:8" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="34"/>
       <c r="B3" s="35"/>
       <c r="D3" s="39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:8" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="42"/>
     </row>
-    <row r="5" spans="1:8" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:8" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="42"/>
       <c r="D5" s="41" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:8" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="42"/>
     </row>
-    <row r="7" spans="1:8" s="39" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:8" s="39" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="43"/>
       <c r="D7" s="39" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:8" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="42"/>
     </row>
-    <row r="9" spans="1:8" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:8" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="52"/>
       <c r="E9" s="48" t="s">
         <v>182</v>
@@ -13994,54 +14908,54 @@
       <c r="F9" s="48"/>
       <c r="G9" s="48"/>
     </row>
-    <row r="10" spans="1:8" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:8" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="49"/>
     </row>
-    <row r="11" spans="1:8" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:8" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="49"/>
       <c r="F11" s="50" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:8" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="49"/>
       <c r="F12" s="50"/>
       <c r="G12" s="48" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:8" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="49"/>
       <c r="F13" s="50"/>
     </row>
-    <row r="14" spans="1:8" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:8" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="49"/>
       <c r="F14" s="50"/>
       <c r="H14" s="48" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:8" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="49"/>
       <c r="F15" s="50"/>
     </row>
-    <row r="16" spans="1:8" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:8" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="49"/>
       <c r="F16" s="50"/>
       <c r="G16" s="48" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:9" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="49"/>
     </row>
-    <row r="18" spans="1:9" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:9" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="49"/>
       <c r="H18" s="48" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:9" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="49"/>
       <c r="H19" s="48" t="s">
         <v>185</v>
@@ -14050,12 +14964,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:9" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="36"/>
       <c r="B20" s="37"/>
       <c r="D20" s="40"/>
     </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="21"/>
       <c r="D21" s="11" t="s">
         <v>37</v>

--- a/合成後project/Document/２.ハートゲーム資料/2.ハートゲーム画面仕様.xlsx
+++ b/合成後project/Document/２.ハートゲーム資料/2.ハートゲーム画面仕様.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tt\合成後project\Document\２.ハートゲーム資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB582834-154D-480E-92CB-06DE656B7EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC7B9E1-B890-4F6A-97AD-AD534DA12255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="5" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -13969,8 +13969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADC6AFD-B471-488C-91FA-BE2A4366C7FC}">
   <dimension ref="A1:AF195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="B177" sqref="B177"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="AG180" sqref="AG180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -14848,7 +14848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6888B70-F55A-4F02-9108-5680AE2CD0C9}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>

--- a/合成後project/Document/２.ハートゲーム資料/2.ハートゲーム画面仕様.xlsx
+++ b/合成後project/Document/２.ハートゲーム資料/2.ハートゲーム画面仕様.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tt\合成後project\Document\２.ハートゲーム資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC7B9E1-B890-4F6A-97AD-AD534DA12255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32314418-2BF6-4C41-A5DB-012725314817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="5" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="197">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="4">
@@ -2077,6 +2077,20 @@
     <t>追加仕様</t>
     <rPh sb="0" eb="4">
       <t>ツイカシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>３０フレーム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>数値の変更</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2316,7 +2330,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2469,6 +2483,8 @@
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -12921,6 +12937,66 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94A70178-9F98-406B-8D7C-EA8608D7FAC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5029200" y="3009900"/>
+          <a:ext cx="815340" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -13218,10 +13294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2D295A-9295-46AC-88E4-F7ADF9D99499}">
-  <dimension ref="B1:H21"/>
+  <dimension ref="B1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -13488,6 +13564,20 @@
       </c>
       <c r="H21" s="22" t="s">
         <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E22" s="14">
+        <v>46029</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -14846,9 +14936,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6888B70-F55A-4F02-9108-5680AE2CD0C9}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -14946,16 +15038,24 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="49"/>
-    </row>
-    <row r="18" spans="1:9" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="55">
+        <v>46029</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="O17" s="54" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="49"/>
       <c r="H18" s="48" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="49"/>
       <c r="H19" s="48" t="s">
         <v>185</v>
@@ -14964,12 +15064,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="36"/>
       <c r="B20" s="37"/>
       <c r="D20" s="40"/>
     </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="21"/>
       <c r="D21" s="11" t="s">
         <v>37</v>
@@ -14980,5 +15080,6 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/合成後project/Document/２.ハートゲーム資料/2.ハートゲーム画面仕様.xlsx
+++ b/合成後project/Document/２.ハートゲーム資料/2.ハートゲーム画面仕様.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tt\合成後project\Document\２.ハートゲーム資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\合成後project\Document\２.ハートゲーム資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32314418-2BF6-4C41-A5DB-012725314817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04616FEA-94C5-46BA-A573-C8D09A445E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="5" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="198">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="4">
@@ -2092,6 +2092,10 @@
     <rPh sb="3" eb="5">
       <t>ヘンコウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10フレーム</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2330,7 +2334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2485,6 +2489,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -12994,6 +12999,61 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{916DDA6A-F07E-4D75-AD6F-4044B94F01D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5044440" y="2819400"/>
+          <a:ext cx="815340" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13294,10 +13354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2D295A-9295-46AC-88E4-F7ADF9D99499}">
-  <dimension ref="B1:H22"/>
+  <dimension ref="B1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -13577,6 +13637,20 @@
         <v>181</v>
       </c>
       <c r="H22" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E23" s="14">
+        <v>46030</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="H23" s="22" t="s">
         <v>196</v>
       </c>
     </row>
@@ -14936,9 +15010,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6888B70-F55A-4F02-9108-5680AE2CD0C9}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -15038,7 +15112,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:21" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="55">
         <v>46029</v>
       </c>
@@ -15048,14 +15122,22 @@
       <c r="O17" s="54" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="49"/>
+      <c r="U17" s="56" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="55">
+        <v>46030</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>196</v>
+      </c>
       <c r="H18" s="48" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="49"/>
       <c r="H19" s="48" t="s">
         <v>185</v>
@@ -15064,12 +15146,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:21" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="36"/>
       <c r="B20" s="37"/>
       <c r="D20" s="40"/>
     </row>
-    <row r="21" spans="1:15" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:21" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="21"/>
       <c r="D21" s="11" t="s">
         <v>37</v>
